--- a/Actor-Security-Role-Reporter/Resources/ActorSecurityRoleReport.xlsx
+++ b/Actor-Security-Role-Reporter/Resources/ActorSecurityRoleReport.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sejondau\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repo\XrmToolBox-Plugins\Actor-Security-Role-Reporter\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23070" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23070" windowHeight="9780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId6"/>
+    <pivotCache cacheId="17" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="15">
   <si>
     <t>Row Labels</t>
   </si>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -189,7 +189,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[UserSecurityRoleReport.xlsx]Graph!PivotTable7</c:name>
+    <c:name>[ActorSecurityRoleReport.xlsx]Graph!PivotTable7</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -224,7 +224,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -337,6 +336,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8FC4-4076-8DD4-18CDE3E43C33}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -467,7 +471,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -546,7 +549,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -559,7 +562,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[UserSecurityRoleReport.xlsx]Graph!PivotTable8</c:name>
+    <c:name>[ActorSecurityRoleReport.xlsx]Graph!PivotTable8</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -593,7 +596,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -706,6 +708,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A7B3-4424-9CDA-B0059499D9E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -836,7 +843,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -915,7 +921,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -928,7 +934,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[UserSecurityRoleReport.xlsx]Graph!PivotTable1</c:name>
+    <c:name>[ActorSecurityRoleReport.xlsx]Graph!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -958,7 +964,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1004,45 +1009,18 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="25000"/>
-                  <a:lumOff val="75000"/>
-                </a:sysClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="sv-SE"/>
-            </a:p>
-          </c:txPr>
-        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1075,10 +1053,12 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7B86-4394-85DE-C0B38F160647}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Graph!$F$3:$F$4</c:f>
@@ -1099,6 +1079,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7B86-4394-85DE-C0B38F160647}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1107,7 +1092,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -1167,7 +1152,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1180,7 +1165,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[UserSecurityRoleReport.xlsx]Graph!PivotTable2</c:name>
+    <c:name>[ActorSecurityRoleReport.xlsx]Graph!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1210,7 +1195,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1380,9 +1364,13 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C00-4E7F-9CB9-C1C85AA8867B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3736,7 +3724,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3830,7 +3824,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3860,7 +3860,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3888,11 +3894,17 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>100050</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Type"/>
+            <xdr:cNvPr id="5" name="Type">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -3906,7 +3918,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3960,11 +3972,17 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>33374</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="6" name="Status"/>
+            <xdr:cNvPr id="6" name="Status">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -3978,7 +3996,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4034,7 +4052,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4064,7 +4088,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4083,660 +4113,34 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jonathan Daugaard" refreshedDate="42652.839200462964" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jonathan Daugaard" refreshedDate="43456.639013425927" missingItemsLimit="0" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
     <worksheetSource name="Security_roles__Users_and_BU"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Name" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="573">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
-        <s v="Richard Beumer" u="1"/>
-        <s v="Frédéric ZEGHERS" u="1"/>
-        <s v="Peter Ehlerts Jensen" u="1"/>
-        <s v="Ken Everidge" u="1"/>
-        <s v="Anton Gusev" u="1"/>
-        <s v="Miia Itämeri" u="1"/>
-        <s v="Thierry LE BOURHIS" u="1"/>
-        <s v="Linnea Fogelmark" u="1"/>
-        <s v="Christian Karlovits" u="1"/>
-        <s v="Jeff Hall" u="1"/>
-        <s v="Jasmin Wuethrich" u="1"/>
-        <s v="Eva Strømsrud" u="1"/>
-        <s v="Tom McKearney" u="1"/>
-        <s v="Michael Creech" u="1"/>
-        <s v="Orianne Esser" u="1"/>
-        <s v="Rolf Pieters" u="1"/>
-        <s v="Mike Pawezowski" u="1"/>
-        <s v="Marcel Fix" u="1"/>
-        <s v="Jackie Smith" u="1"/>
-        <s v="Henrik Sandberg" u="1"/>
-        <s v="Christian Mende" u="1"/>
-        <s v="Feargal O'Farrell" u="1"/>
-        <s v="Jason Ruth" u="1"/>
-        <s v="Maria Schiff Hansen" u="1"/>
-        <s v="ASCOM DACH" u="1"/>
-        <s v="Aage Rask Andersen" u="1"/>
-        <s v="Michael Soentgen" u="1"/>
-        <s v="Jelle Platenkamp" u="1"/>
-        <s v="Jens Sand Andersen" u="1"/>
-        <s v="Jean Michel SAVARIT" u="1"/>
-        <s v="Therese Stupar" u="1"/>
-        <s v="Ingemar Åhs" u="1"/>
-        <s v="Marcela Navarro-Björn" u="1"/>
-        <s v="Della Murphy" u="1"/>
-        <s v="Michael Stoove" u="1"/>
-        <s v="Roger Gross" u="1"/>
-        <s v="Regula Meier" u="1"/>
-        <s v="Jari Tolonen" u="1"/>
-        <s v="Paul Lawrence" u="1"/>
-        <s v="Susan Walter" u="1"/>
-        <s v="Guido Gloy" u="1"/>
-        <s v="Bill Foster" u="1"/>
-        <s v="Adrian Bailey" u="1"/>
-        <s v="Johan Hansén" u="1"/>
-        <s v="Andrew Weiss" u="1"/>
-        <s v="Glen Screeton" u="1"/>
-        <s v="Rennie Verloop" u="1"/>
-        <s v="Samuel PALOS" u="1"/>
-        <s v="Toralf Hennicke" u="1"/>
-        <s v="Rolf Knorr" u="1"/>
-        <s v="Dieter Neuenschwander" u="1"/>
-        <s v="Ad Schalk" u="1"/>
-        <s v="Brian Biermann" u="1"/>
-        <s v="Eric THIBAULT" u="1"/>
-        <s v="Sushil Pillai" u="1"/>
-        <s v="Corinna Rhode" u="1"/>
-        <s v="Rolf Veldman" u="1"/>
-        <s v="Helen van der Molen" u="1"/>
-        <s v="Lee Minall" u="1"/>
-        <s v="Harry Wassens" u="1"/>
-        <s v="Ad de Wit" u="1"/>
-        <s v="Rachel Pollard" u="1"/>
-        <s v="Jonathan Sugumar" u="1"/>
-        <s v="Tommy Skantz" u="1"/>
-        <s v="Ramsey Lancaster" u="1"/>
-        <s v="Rune Røstad" u="1"/>
-        <s v="Anders Lindblad" u="1"/>
-        <s v="ASCOM Nordic Share" u="1"/>
-        <s v="Cynthia Daugherty" u="1"/>
-        <s v="Robin Liljeros" u="1"/>
-        <s v="Aisha Faisal" u="1"/>
-        <s v="Gunny Kron" u="1"/>
-        <s v="Justin Pegram" u="1"/>
-        <s v="Ivan Liljegren" u="1"/>
-        <s v="Joerg Gebauer" u="1"/>
-        <s v="Jérôme RODRIGUES" u="1"/>
-        <s v="Ruud Lohuis" u="1"/>
-        <s v="ASCOM DACH Share" u="1"/>
-        <s v="Ralph van der Hulst" u="1"/>
-        <s v="ASCOM Global" u="1"/>
-        <s v="Angie Jones" u="1"/>
-        <s v="Jethro Sallay" u="1"/>
-        <s v="Corey Nussey" u="1"/>
-        <s v="Janne Kostamo" u="1"/>
-        <s v="Richard Horner" u="1"/>
-        <s v="Karen Irvine" u="1"/>
-        <s v="romain castex" u="1"/>
-        <s v="Meiling Clucas" u="1"/>
-        <s v="Wendy Bor" u="1"/>
-        <s v="Alexandre JENN" u="1"/>
-        <s v="Alexander Keck" u="1"/>
-        <s v="Marieke Ros" u="1"/>
-        <s v="Dennis Johnson" u="1"/>
-        <s v="Xander Schoenmaker" u="1"/>
-        <s v="Alan Beechey" u="1"/>
-        <s v="Merle Kuus" u="1"/>
-        <s v="Lars Fogestedt" u="1"/>
-        <s v="Rick Newman" u="1"/>
-        <s v="Anne-Margrethe Torp" u="1"/>
-        <s v="Mirko Pucko" u="1"/>
-        <s v="Darren Spill" u="1"/>
-        <s v="Øyvind Haugan" u="1"/>
-        <s v="Rowina Windsor" u="1"/>
-        <s v="Rodney End" u="1"/>
-        <s v="Morgan Carlsson" u="1"/>
-        <s v="Arjan Boer" u="1"/>
-        <s v="Frank Rasch" u="1"/>
-        <s v="Rob Goldman" u="1"/>
-        <s v="Angelo Lopez" u="1"/>
-        <s v="Nicolas BERTHELOT" u="1"/>
-        <s v="Dominique CHATTE" u="1"/>
-        <s v="ASCOM Finland" u="1"/>
-        <s v="Kimmo Ahlqvist" u="1"/>
-        <s v="Gabi Muenker" u="1"/>
-        <s v="Tony Ferguson" u="1"/>
-        <s v="Alex Mathias" u="1"/>
-        <s v="ASCOM Benelux" u="1"/>
-        <s v="Marja Nieboer" u="1"/>
-        <s v="Roger Håkansson" u="1"/>
-        <s v="Kjell Eriksson" u="1"/>
-        <s v="Renee Mueller" u="1"/>
-        <s v="ASCOM Austria" u="1"/>
-        <s v="East Team" u="1"/>
-        <s v="Dan Denick" u="1"/>
-        <s v="Anders Frisk" u="1"/>
-        <s v="ASCOM Switzerland" u="1"/>
-        <s v="Chris Carroll" u="1"/>
-        <s v="Egied Bormans" u="1"/>
-        <s v="Patrick Van Ryzin" u="1"/>
-        <s v="Wim Van Eyken" u="1"/>
-        <s v="Charlotta Nordelöf" u="1"/>
-        <s v="Leo Silver" u="1"/>
-        <s v="Edwin Meerbeek" u="1"/>
-        <s v="Kjell Dybvadskog" u="1"/>
-        <s v="Riikka Ruohonen" u="1"/>
-        <s v="Bernd Kreutzer" u="1"/>
-        <s v="Thomas Mohr" u="1"/>
-        <s v="Lisa Wood" u="1"/>
-        <s v="Markus Falk" u="1"/>
-        <s v="Will Granger" u="1"/>
-        <s v="Kari Narva" u="1"/>
-        <s v="Ahmad Hajhasan" u="1"/>
-        <s v="Holger Cordes" u="1"/>
-        <s v="Philippe Bosmans" u="1"/>
-        <s v="Timothy Painter" u="1"/>
-        <s v="Frank Wanner" u="1"/>
-        <s v="Cesar Gil" u="1"/>
-        <s v="Sakari Määttä" u="1"/>
-        <s v="Melvin van der Tol" u="1"/>
-        <s v="Anders Jutebrant Ivarsson" u="1"/>
-        <s v="Rozemarijn Koldewee" u="1"/>
-        <s v="Maud Beurse" u="1"/>
-        <s v="Jeffrey Inge" u="1"/>
-        <s v="James Wright" u="1"/>
-        <s v="Paul Schwartz" u="1"/>
-        <s v="Philippe Monet" u="1"/>
-        <s v="Gary Percival" u="1"/>
-        <s v="Klaus Trillich" u="1"/>
-        <s v="Alok Sharma" u="1"/>
-        <s v="Koert Hermans" u="1"/>
-        <s v="Kirsten Beeuwkes" u="1"/>
-        <s v="Magnus Dahl" u="1"/>
-        <s v="Katri Suomela" u="1"/>
-        <s v="Marcel TRONTIN" u="1"/>
-        <s v="Jonas Rutberg" u="1"/>
-        <s v="Richard France" u="1"/>
-        <s v="Sylvie PEREIRA" u="1"/>
-        <s v="Christian Dubberöd" u="1"/>
-        <s v="Denis Isoz" u="1"/>
-        <s v="Anders Sjöstrand" u="1"/>
-        <s v="Werner Hohl" u="1"/>
-        <s v="Shaun Langtry" u="1"/>
-        <s v="Stephan Middelkoop" u="1"/>
-        <s v="Arie Wijnhoff" u="1"/>
-        <s v="Torsten Paulen" u="1"/>
-        <s v="Ari-Pekka Tenko" u="1"/>
-        <s v="Rolf Dietrich" u="1"/>
-        <s v="ASCOM Nordic" u="1"/>
-        <s v="Eric Tan" u="1"/>
-        <s v="Shaun Self" u="1"/>
-        <s v="Colin Taylor" u="1"/>
-        <s v="Renko Altelaar" u="1"/>
-        <s v="Sebastian Puetz" u="1"/>
-        <s v="Maarten de Groot" u="1"/>
-        <s v="Marcel Kuhn" u="1"/>
-        <s v="UK_Managment_Share" u="1"/>
-        <s v="Ville Heinonen" u="1"/>
-        <s v="Petra van der Velden" u="1"/>
-        <s v="Alessandro Marra" u="1"/>
-        <s v="Eric REYNAUD" u="1"/>
-        <s v="April Collier" u="1"/>
-        <s v="Tina Kreiner" u="1"/>
-        <s v="Stéphane NAUDIN" u="1"/>
-        <s v="Anett Kruschke" u="1"/>
-        <s v="Victor Huijbregts" u="1"/>
-        <s v="Beatrice Hallemeersch" u="1"/>
-        <s v="Sales Person" u="1"/>
-        <s v="ASCOM Germany" u="1"/>
-        <s v="West Team" u="1"/>
-        <s v="Tarja Brusila" u="1"/>
-        <s v="Peter Helmus" u="1"/>
-        <s v="Claes Ödman" u="1"/>
-        <s v="Ann-Sofie Waltersson" u="1"/>
-        <s v="Russell Storer" u="1"/>
-        <s v="Thomas Doerig" u="1"/>
-        <s v="Marcus Domack" u="1"/>
-        <s v="James Webb" u="1"/>
-        <s v="Rene Pfister" u="1"/>
-        <s v="Magnus Lönnroth" u="1"/>
-        <s v="Simon Instone" u="1"/>
-        <s v="ASCOM US" u="1"/>
-        <s v="Hugo Brunner" u="1"/>
-        <s v="Bernhard von Siebenthal" u="1"/>
-        <s v="Kari Helenius" u="1"/>
-        <s v="Bram Straatman" u="1"/>
-        <s v="Kari Saari" u="1"/>
-        <s v="Rachel Nussbaumer" u="1"/>
-        <s v="Stefan Blomén" u="1"/>
-        <s v="Richard Spencer" u="1"/>
-        <s v="Jonas Lundgren" u="1"/>
-        <s v="Rolf Eide" u="1"/>
-        <s v="Daniel Frahm" u="1"/>
-        <s v="Brian Carton" u="1"/>
-        <s v="Enrico Lim" u="1"/>
-        <s v="Bram van Gelder" u="1"/>
-        <s v="Stefan Simonsson" u="1"/>
-        <s v="Hiral Chavda" u="1"/>
-        <s v="Jari-Pekka Suhonen" u="1"/>
-        <s v="Frederik Eneman" u="1"/>
-        <s v="Herbert Boy" u="1"/>
-        <s v="Martina Seiler" u="1"/>
-        <s v="Michael Alford" u="1"/>
-        <s v="Dan Ehrhardt" u="1"/>
-        <s v="Services" u="1"/>
-        <s v="Eric Muusz" u="1"/>
-        <s v="Eva Brandt" u="1"/>
-        <s v="Rob de Jager" u="1"/>
-        <s v="Ed Kelly" u="1"/>
-        <s v="Håkon Storm" u="1"/>
-        <s v="Richard Turner" u="1"/>
-        <s v="Jan van der Veen" u="1"/>
-        <s v="Jesper Hellan" u="1"/>
-        <s v="Etienne Leijenhorst" u="1"/>
-        <s v="Robert Markham" u="1"/>
-        <s v="Nico Kok" u="1"/>
-        <s v="Ben Wong" u="1"/>
-        <s v="secrm test" u="1"/>
-        <s v="Sander Posthumus" u="1"/>
-        <s v="Eric Wagemans" u="1"/>
-        <s v="Hanspeter Angst" u="1"/>
-        <s v="Cyril Anderes" u="1"/>
-        <s v="ASCOM MEA" u="1"/>
-        <s v="Niclas Holmblad" u="1"/>
-        <s v="Daniel Betteridge" u="1"/>
-        <s v="Therése Disfält" u="1"/>
-        <s v="Renato Meier" u="1"/>
-        <s v="Michael Tandy" u="1"/>
-        <s v="Arjan Griffioen" u="1"/>
-        <s v="Gert Wallin" u="1"/>
-        <s v="Dusty Stricker" u="1"/>
-        <s v="Jørgen Karlsen" u="1"/>
-        <s v="Tom van Dongen" u="1"/>
-        <s v="Ronald Zijlstra" u="1"/>
-        <s v="Daniel Berger" u="1"/>
-        <s v="Marko Schulz" u="1"/>
-        <s v="An Verschelden" u="1"/>
-        <s v="Tore Lervang" u="1"/>
-        <s v="Brian Munk" u="1"/>
-        <s v="Marco Morelis" u="1"/>
-        <s v="Peter R. Voss" u="1"/>
-        <s v="Yann LEBRETON" u="1"/>
-        <s v="Mathias Kropf" u="1"/>
-        <s v="Lee Boojers" u="1"/>
-        <s v="Kim Brun Sørensen" u="1"/>
-        <s v="Livane HELLMANN" u="1"/>
-        <s v="Claudia Perrin-Turi" u="1"/>
-        <s v="Kara Claxton" u="1"/>
-        <s v="Ahmad Al Jassim" u="1"/>
-        <s v="David Aubrey" u="1"/>
-        <s v="Thomas Christensen" u="1"/>
-        <s v="Dahn Jubell" u="1"/>
-        <s v="Patrik Nilsson" u="1"/>
-        <s v="Ken Crosley" u="1"/>
-        <s v="ASCOM Asia" u="1"/>
-        <s v="Charlotte Stanley" u="1"/>
-        <s v="Jo De Mol" u="1"/>
-        <s v="Eline Rentinck" u="1"/>
-        <s v="Tina Bains" u="1"/>
-        <s v="Christof Sames" u="1"/>
-        <s v="Dik van Berkum" u="1"/>
-        <s v="Dan Prendergast" u="1"/>
-        <s v="Bruce Novkov" u="1"/>
-        <s v="Tim Whelehan" u="1"/>
-        <s v="Dragan Jancic" u="1"/>
-        <s v="Dominic Pohlmann" u="1"/>
-        <s v="Oliver Laube" u="1"/>
-        <s v="Joakim Hasselskog" u="1"/>
-        <s v="Bruno DE JUST" u="1"/>
-        <s v="Adrian Davenport" u="1"/>
-        <s v="ASCOM Germany North" u="1"/>
-        <s v="Jan-Mark Vink" u="1"/>
-        <s v="Marcus Blomberg" u="1"/>
-        <s v="Lisette Kube" u="1"/>
-        <s v="Nayomie Reining" u="1"/>
-        <s v="Inside Sales" u="1"/>
-        <s v="Joanne Dodson" u="1"/>
-        <s v="Mattias Verdin" u="1"/>
-        <s v="Darrell Anslow" u="1"/>
-        <s v="Ian Binks" u="1"/>
-        <s v="Hein Wiering" u="1"/>
-        <s v="Sanjiv Ahuja" u="1"/>
-        <s v="Alain MORICE" u="1"/>
-        <s v="Wolfgang Wassernicht" u="1"/>
-        <s v="Paul Jackson" u="1"/>
-        <s v="Debbie Cassidy" u="1"/>
-        <s v="Mikael Lundgren" u="1"/>
-        <s v="Beatrice Daum" u="1"/>
-        <s v="Susan Steentjes" u="1"/>
-        <s v="Cath Rooke" u="1"/>
-        <s v="Kees Voorwinden" u="1"/>
-        <s v="Anders Melin" u="1"/>
-        <s v="Patrick Stocker" u="1"/>
-        <s v="Dag Roar Eidem" u="1"/>
-        <s v="Justin Croston" u="1"/>
-        <s v="Rustin Bourbeau" u="1"/>
-        <s v="Marco van de Hoef" u="1"/>
-        <s v="Frédéric BOUSSANGE" u="1"/>
-        <s v="Sami Sundholm" u="1"/>
-        <s v="Lisa Woodcock" u="1"/>
-        <s v="Britta Hanley" u="1"/>
-        <s v="Johan Bang" u="1"/>
-        <s v="Cees Hersevoort" u="1"/>
-        <s v="Carl-Johan Helgesson" u="1"/>
-        <s v="Noelle-Lina Lienard" u="1"/>
-        <s v="Oliver Neugebauer" u="1"/>
-        <s v="Mark Teder" u="1"/>
-        <s v="Mia Johansson" u="1"/>
-        <s v="Mattias Liss-Daniels" u="1"/>
-        <s v="Erik Saedén" u="1"/>
-        <s v="Bijan Sepidbarin" u="1"/>
-        <s v="Olivier Pierre" u="1"/>
-        <s v="Eric Givens" u="1"/>
-        <s v="Daniel Kruissen" u="1"/>
-        <s v="Petter Moldenius" u="1"/>
-        <s v="Frank Rabis" u="1"/>
-        <s v="CRM Integration" u="1"/>
-        <s v="Menno Boersma" u="1"/>
-        <s v="Anders Lindell" u="1"/>
-        <s v="CRM e-Con Service Account" u="1"/>
-        <s v="Luke Boicos" u="1"/>
-        <s v="Frank Schmidt" u="1"/>
-        <s v="Jeroen van der Wateren" u="1"/>
-        <s v="Albert Koh" u="1"/>
-        <s v="Helena Strahl" u="1"/>
-        <s v="Gottfried Guetlhuber" u="1"/>
-        <s v="GARRY Unsworth" u="1"/>
-        <s v="Are Rygg Amundsen" u="1"/>
-        <s v="Natalia Rivkina" u="1"/>
-        <s v="Hans-Juergen Brucksch" u="1"/>
-        <s v="Gert-Jan Alberts" u="1"/>
-        <s v="Christopher Stoessel" u="1"/>
-        <s v="Armindo Lopes" u="1"/>
-        <s v="Eric Chung" u="1"/>
-        <s v="Phillip Ellis" u="1"/>
-        <s v="Stig Bonnevier" u="1"/>
-        <s v="Martin Weber" u="1"/>
-        <s v="Daniel VOEGELE" u="1"/>
-        <s v="Gary Snook" u="1"/>
-        <s v="Rune Løw" u="1"/>
-        <s v="Benjamin Resele" u="1"/>
-        <s v="Rolf Cuhfus" u="1"/>
-        <s v="Ulf Eriksson" u="1"/>
-        <s v="Paul Frolik" u="1"/>
-        <s v="Dorothee Mittler" u="1"/>
-        <s v="Paul Schrok" u="1"/>
-        <s v="Renata Waterfall" u="1"/>
-        <s v="Hermann Fueg" u="1"/>
-        <s v="Peter Thomsen" u="1"/>
-        <s v="Marianne Fischer" u="1"/>
-        <s v="Lloyd Spindler" u="1"/>
-        <s v="Roel Ottink" u="1"/>
-        <s v="Susan Mueller" u="1"/>
-        <s v="Ingo Menges" u="1"/>
-        <s v="Chris Talbot" u="1"/>
-        <s v="Ron Garrett" u="1"/>
-        <s v="Ted Ottenheimer" u="1"/>
-        <s v="LaQuita Stevens" u="1"/>
-        <s v="Kyle Habben" u="1"/>
-        <s v="Fred Koffijberg" u="1"/>
-        <s v="Kent Badenfors" u="1"/>
-        <s v="Stefan Ohlsson" u="1"/>
-        <s v="Jan Wenzel" u="1"/>
-        <s v="Arieh Shlezinger" u="1"/>
-        <s v="Jean-Christophe LAFFARGUE" u="1"/>
-        <s v="Christoph Camenzind" u="1"/>
-        <s v="José RODRIGUES" u="1"/>
-        <s v="Rob Noot" u="1"/>
-        <s v="Simone Armbrüster" u="1"/>
-        <s v="Tom Boston" u="1"/>
-        <s v="Peter Goeggel" u="1"/>
-        <s v="Steven De Keyser" u="1"/>
-        <s v="Kiri Monksfield" u="1"/>
-        <s v="Fabienne Ducros" u="1"/>
-        <s v="Veronica Wristel" u="1"/>
-        <s v="Koen de Roo" u="1"/>
-        <s v="Charlene Tilley" u="1"/>
-        <s v="Rolf-Dieter Finger" u="1"/>
-        <s v="Bill Deskin" u="1"/>
-        <s v="Oneil Pinto" u="1"/>
-        <s v="Adam Jaffe" u="1"/>
-        <s v="Jan Svensson" u="1"/>
-        <s v="Udo Jendrysiak" u="1"/>
-        <s v="Gunnar Niesel" u="1"/>
-        <s v="Chuck Franks" u="1"/>
-        <s v="Mark van Gelder" u="1"/>
-        <s v="Carl-Anders Berntsson" u="1"/>
-        <s v="Anja Schmidt Edvardsen" u="1"/>
-        <s v="Lucy Dickens" u="1"/>
-        <s v="Philippe BILLET" u="1"/>
-        <s v="Joost Wilson" u="1"/>
-        <s v="Eric Bakker" u="1"/>
-        <s v="Jakub Kurpiewski" u="1"/>
-        <s v="Regina ANGELE" u="1"/>
-        <s v="Karl Tittley" u="1"/>
-        <s v="Robert Modzelewski" u="1"/>
-        <s v="Sai Kolluri" u="1"/>
-        <s v="Catherine DUTEIL" u="1"/>
-        <s v="Damian Whitfield" u="1"/>
-        <s v="ASCOM RoW" u="1"/>
-        <s v="Alex Hill" u="1"/>
-        <s v="Paul Aguilar" u="1"/>
-        <s v="Tony Chadwick" u="1"/>
-        <s v="Patrik Simson" u="1"/>
-        <s v="Christine RENAULT" u="1"/>
-        <s v="Johan Norrman" u="1"/>
-        <s v="Chris Regeling" u="1"/>
-        <s v="Hans van Oosterhoud" u="1"/>
-        <s v="Paul Lasher" u="1"/>
-        <s v="Andréas Hillvad" u="1"/>
-        <s v="Klaas de Jong" u="1"/>
-        <s v="ASCOM Sweden" u="1"/>
-        <s v="Joachim Walther" u="1"/>
-        <s v="Christian Rheydt" u="1"/>
-        <s v="Ian McLachlan" u="1"/>
-        <s v="Jake Manning" u="1"/>
-        <s v="Jim Gargola" u="1"/>
-        <s v="Thomas Ljung" u="1"/>
-        <s v="CRM App Service Account" u="1"/>
-        <s v="Bob Parson" u="1"/>
-        <s v="Roger Kuhn" u="1"/>
-        <s v="Björn Martinsson" u="1"/>
-        <s v="Hans Tysk" u="1"/>
-        <s v="Stefan Bohlen" u="1"/>
-        <s v="Fredrik Garpemyr" u="1"/>
-        <s v="Christoph Gsell" u="1"/>
-        <s v="Kerry Wells" u="1"/>
-        <s v="Ulli Braun" u="1"/>
-        <s v="Bent Andersen" u="1"/>
-        <s v="Alexander Nettenbreijers" u="1"/>
-        <s v="Aart Veenstra" u="1"/>
-        <s v="Alper Aner" u="1"/>
-        <s v="Olof Ohlsson" u="1"/>
-        <s v="Thierry MORAEL" u="1"/>
-        <s v="Johan Zetterström" u="1"/>
-        <s v="Murad Hamideh" u="1"/>
-        <s v="Stefan Brämberg" u="1"/>
-        <s v="Jeff Hughes" u="1"/>
-        <s v="Daniel M Andersson" u="1"/>
-        <s v="Juergen Veit" u="1"/>
-        <s v="SandraLee Spigner" u="1"/>
-        <s v="CRM Service Account" u="1"/>
-        <s v="Matthew Street" u="1"/>
-        <s v="Nidaa TOHME" u="1"/>
-        <s v="Joakim Berlin" u="1"/>
-        <s v="Fabian Middelweerd" u="1"/>
-        <s v="ASCOM UK" u="1"/>
-        <s v="Kirsty Duncan" u="1"/>
-        <s v="ASCOM Denmark" u="1"/>
-        <s v="Rodolphe RICCI" u="1"/>
-        <s v="Cem Donat" u="1"/>
-        <s v="Dwen Sparwer" u="1"/>
-        <s v="Iwan Raeskin" u="1"/>
-        <s v="Eva-Lena Johansson" u="1"/>
-        <s v="Marco Koekenberg" u="1"/>
-        <s v="UK_HealthCare_Share" u="1"/>
-        <s v="Robert Bradley" u="1"/>
-        <s v="Bert Wermink" u="1"/>
-        <s v="Ascom Switzerland Suisse Romand" u="1"/>
-        <s v="Arjen Colijn" u="1"/>
-        <s v="Werner Meerstetter" u="1"/>
-        <s v="Arnaud JAGUES" u="1"/>
-        <s v="Peter Wilson" u="1"/>
-        <s v="Hans Rehorst" u="1"/>
-        <s v="Administrators" u="1"/>
-        <s v="Co Hoonhoud" u="1"/>
-        <s v="Jørgen Schultz" u="1"/>
-        <s v="Jari Kalpio" u="1"/>
-        <s v="Tron Alm" u="1"/>
-        <s v="Denis Hoffmann" u="1"/>
-        <s v="Naomi Archer" u="1"/>
-        <s v="Donovan Ferguson" u="1"/>
-        <s v="Oskar Lundgren" u="1"/>
-        <s v="Joanne Forrester" u="1"/>
-        <s v="Mwila Kapema" u="1"/>
-        <s v="Berry Ramaekers" u="1"/>
-        <s v="Peter Grimbeck" u="1"/>
-        <s v="Patrick Haering" u="1"/>
-        <s v="Neil Fricke" u="1"/>
-        <s v="Jonas Anselmby" u="1"/>
-        <s v="Akina KANAGARATNAM" u="1"/>
-        <s v="Robert Wood" u="1"/>
-        <s v="Marc van Zon" u="1"/>
-        <s v="Joachim Furuseth" u="1"/>
-        <s v="Anna-Lena Josephson" u="1"/>
-        <s v="Juerg Schaffner" u="1"/>
-        <s v="Nicole van Leeuwen" u="1"/>
-        <s v="Jeroen Gude" u="1"/>
-        <s v="Wim De Weerdt" u="1"/>
-        <s v="Cyril DUFRESNE" u="1"/>
-        <s v="Hugo Esveldt" u="1"/>
-        <s v="Sean Zinn" u="1"/>
-        <s v="Jan Bogaert" u="1"/>
-        <s v="Bernhard Müller" u="1"/>
-        <s v="John Keeling" u="1"/>
-        <s v="Esko Halenius" u="1"/>
-        <s v="Hans Claesen" u="1"/>
-        <s v="Mary York" u="1"/>
-        <s v="Christophe LOPES" u="1"/>
-        <s v="ASCOM Germany South" u="1"/>
-        <s v="Demosthene Kokkalis" u="1"/>
-        <s v="Katja Goertz" u="1"/>
-        <s v="Jan-Willem Jutte" u="1"/>
-        <s v="Balazs Szathmary" u="1"/>
-        <s v="Lothar Schmidt" u="1"/>
-        <s v="Gabriel Laczko" u="1"/>
-        <s v="Valtteri Välimäki" u="1"/>
-        <s v="Christophe Erregeerts" u="1"/>
-        <s v="Helen Floyd" u="1"/>
-        <s v="Rebecca Portelli" u="1"/>
-        <s v="Mark de Jager" u="1"/>
-        <s v="Jack Sheehan" u="1"/>
-        <s v="Siao-Loon Then" u="1"/>
-        <s v="Staffan Örnbratt" u="1"/>
-        <s v="Harald Trautwein" u="1"/>
-        <s v="Oliver Hamacher" u="1"/>
-        <s v="Sandra Fischer" u="1"/>
-        <s v="Gerrit Vreeswijk" u="1"/>
-        <s v="Xander Willekes" u="1"/>
-        <s v="Dennis Andersson" u="1"/>
-        <s v="Dave Thompson" u="1"/>
-        <s v="Håkan Ribbershed" u="1"/>
-        <s v="Marko Savinainen" u="1"/>
-        <s v="Sandra Schemering" u="1"/>
-        <s v="Henrik Skafte" u="1"/>
-        <s v="Sanford Lange" u="1"/>
-        <s v="Stephan Wettstein" u="1"/>
-        <s v="Sean Dunne" u="1"/>
-        <s v="Anders Arthur" u="1"/>
-        <s v="Krati Pandey" u="1"/>
-        <s v="Petra Kurzenberger" u="1"/>
-        <s v="Frank Kreutz" u="1"/>
-        <s v="Henk Stoker" u="1"/>
-        <s v="Mark Leppard" u="1"/>
-        <s v="Rob Hoogland" u="1"/>
-        <s v="Roberto Daveti" u="1"/>
-        <s v="Michael Timm" u="1"/>
-        <s v="ASCOM Australia" u="1"/>
-        <s v="Samer Hamade" u="1"/>
-        <s v="Jonathan Daugaard" u="1"/>
-        <s v="Chris Andreski" u="1"/>
-        <s v="ASCOM France" u="1"/>
-        <s v="Mario de Lijster" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Security Role" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="29">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
-        <s v="ASCOM Account Management2" u="1"/>
-        <s v="e-Con User" u="1"/>
-        <s v="Quickbix Documents Suite User" u="1"/>
-        <s v="ASCOM Pre Sales" u="1"/>
-        <s v="ASCOM Sales Manager2" u="1"/>
-        <s v="EasyGrid Role" u="1"/>
-        <s v="Ascom Sales Director" u="1"/>
-        <s v="Activity Feeds" u="1"/>
-        <s v="e-Con Modeler" u="1"/>
-        <s v="ASCOM Salesperson2" u="1"/>
-        <s v="Marketing Professional" u="1"/>
-        <s v="ASCOM Sales Consultant2" u="1"/>
-        <s v="Salesperson" u="1"/>
-        <s v="ASCOM  Strategic Account Manager" u="1"/>
-        <s v="Quickbix Documents Suite Administrator" u="1"/>
-        <s v="Quickbix Documents Suite User - low level" u="1"/>
-        <s v="ASCOM Sales Manager - Edit Notes" u="1"/>
-        <s v="ASCOM Account Management" u="1"/>
-        <s v="ASCOM Directors CEO-CFO-COO" u="1"/>
-        <s v="ASCOM Product Mngr &amp; Service Adm." u="1"/>
-        <s v="ASCOM Quoteperson" u="1"/>
-        <s v="Sales Manager" u="1"/>
-        <s v="ASCOM IT Manager2" u="1"/>
-        <s v="ASCOM Telesales" u="1"/>
-        <s v="ASCOM Marketing Manager" u="1"/>
-        <s v="System Administrator" u="1"/>
-        <s v="Ascom Salesperson" u="1"/>
-        <s v="Ascom Local System Administrator" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Business Unit" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="23">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
-        <s v="ASCOM Germany North" u="1"/>
-        <s v="ASCOM Growth Market" u="1"/>
-        <s v="ASCOM Australia" u="1"/>
-        <s v="ASCOM Sweden" u="1"/>
-        <s v="ASCOM Germany" u="1"/>
-        <s v="ASCOM Switzerland" u="1"/>
-        <s v="ASCOM UK" u="1"/>
-        <s v="ASCOM OEM" u="1"/>
-        <s v="ASCOM Nordic" u="1"/>
-        <s v="ASCOM Norway" u="1"/>
-        <s v="ASCOM RoW" u="1"/>
-        <s v="ASCOM Denmark" u="1"/>
-        <s v="ASCOM Asia" u="1"/>
-        <s v="ASCOM Germany South" u="1"/>
-        <s v="ASCOM Finland" u="1"/>
-        <s v="ASCOM Benelux" u="1"/>
-        <s v="ASCOM DACH" u="1"/>
-        <s v="ASCOM US" u="1"/>
-        <s v="ASCOM Global" u="1"/>
-        <s v="ASCOM Austria" u="1"/>
-        <s v="ASCOM MEA" u="1"/>
-        <s v="ASCOM France" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Status" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="3">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
-        <s v="Active" u="1"/>
-        <s v="Disabled" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="3">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
-        <s v="User" u="1"/>
-        <s v="Team" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -4761,24 +4165,82 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A1:B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="J1:L3" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="4">
+      <items count="2">
         <item x="0"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="4">
-        <item m="1" x="2"/>
-        <item m="1" x="1"/>
+      <items count="2">
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -4801,36 +4263,12 @@
   <dataFields count="1">
     <dataField name="Count of Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="3">
+  <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -4841,30 +4279,29 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="F2:G4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="4">
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
+      <items count="2">
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="4">
+      <items count="2">
         <item x="0"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4886,11 +4323,23 @@
   <dataFields count="1">
     <dataField name="Count of Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="2">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
@@ -4902,60 +4351,31 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="D1:E3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="29">
+      <items count="1">
         <item x="0"/>
-        <item m="1" x="18"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="2"/>
-        <item m="1" x="19"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="27"/>
-        <item m="1" x="7"/>
-        <item m="1" x="12"/>
-        <item m="1" x="15"/>
-        <item m="1" x="26"/>
-        <item m="1" x="1"/>
-        <item m="1" x="28"/>
-        <item m="1" x="20"/>
-        <item m="1" x="23"/>
-        <item m="1" x="25"/>
-        <item m="1" x="21"/>
-        <item m="1" x="8"/>
-        <item m="1" x="22"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item m="1" x="16"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="10"/>
-        <item m="1" x="24"/>
-        <item m="1" x="14"/>
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
+      <items count="1">
         <item x="0"/>
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item m="1" x="2"/>
-        <item m="1" x="1"/>
+      <items count="1">
         <item x="0"/>
       </items>
     </pivotField>
@@ -4993,764 +4413,52 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A1:B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="23">
-        <item x="0"/>
-        <item m="1" x="22"/>
-        <item m="1" x="16"/>
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="18"/>
-        <item m="1" x="15"/>
-        <item m="1" x="7"/>
-        <item m="1" x="3"/>
-        <item m="1" x="21"/>
-        <item m="1" x="4"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="12"/>
-        <item m="1" x="8"/>
-        <item m="1" x="17"/>
-        <item m="1" x="13"/>
-        <item m="1" x="2"/>
-        <item m="1" x="11"/>
-        <item m="1" x="14"/>
-        <item m="1" x="1"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item m="1" x="2"/>
-        <item m="1" x="1"/>
-        <item x="0"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A5:A9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A5:A8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="573">
+      <items count="1">
         <item x="0"/>
-        <item m="1" x="76"/>
-        <item m="1" x="423"/>
-        <item m="1" x="48"/>
-        <item m="1" x="7"/>
-        <item m="1" x="463"/>
-        <item m="1" x="90"/>
-        <item m="1" x="519"/>
-        <item m="1" x="419"/>
-        <item m="1" x="54"/>
-        <item m="1" x="275"/>
-        <item m="1" x="473"/>
-        <item m="1" x="147"/>
-        <item m="1" x="190"/>
-        <item m="1" x="396"/>
-        <item m="1" x="110"/>
-        <item m="1" x="565"/>
-        <item m="1" x="271"/>
-        <item m="1" x="312"/>
-        <item m="1" x="491"/>
-        <item m="1" x="298"/>
-        <item m="1" x="434"/>
-        <item m="1" x="367"/>
-        <item m="1" x="111"/>
-        <item m="1" x="327"/>
-        <item m="1" x="30"/>
-        <item m="1" x="164"/>
-        <item m="1" x="87"/>
-        <item m="1" x="479"/>
-        <item m="1" x="193"/>
-        <item m="1" x="167"/>
-        <item m="1" x="427"/>
-        <item m="1" x="60"/>
-        <item m="1" x="144"/>
-        <item m="1" x="52"/>
-        <item m="1" x="487"/>
-        <item m="1" x="332"/>
-        <item m="1" x="290"/>
-        <item m="1" x="133"/>
-        <item m="1" x="421"/>
-        <item m="1" x="249"/>
-        <item m="1" x="229"/>
-        <item m="1" x="360"/>
-        <item m="1" x="526"/>
-        <item m="1" x="310"/>
-        <item m="1" x="241"/>
-        <item m="1" x="532"/>
-        <item m="1" x="531"/>
-        <item m="1" x="405"/>
-        <item m="1" x="160"/>
-        <item m="1" x="484"/>
-        <item m="1" x="269"/>
-        <item m="1" x="540"/>
-        <item m="1" x="245"/>
-        <item m="1" x="201"/>
-        <item m="1" x="156"/>
-        <item m="1" x="182"/>
-        <item m="1" x="564"/>
-        <item m="1" x="263"/>
-        <item m="1" x="77"/>
-        <item m="1" x="401"/>
-        <item m="1" x="61"/>
-        <item m="1" x="116"/>
-        <item m="1" x="459"/>
-        <item m="1" x="106"/>
-        <item m="1" x="449"/>
-        <item m="1" x="243"/>
-        <item m="1" x="389"/>
-        <item m="1" x="547"/>
-        <item m="1" x="437"/>
-        <item m="1" x="301"/>
-        <item m="1" x="352"/>
-        <item m="1" x="161"/>
-        <item m="1" x="35"/>
-        <item m="1" x="237"/>
-        <item m="1" x="397"/>
-        <item m="1" x="151"/>
-        <item m="1" x="553"/>
-        <item m="1" x="262"/>
-        <item m="1" x="130"/>
-        <item m="1" x="266"/>
-        <item m="1" x="362"/>
-        <item m="1" x="436"/>
-        <item m="1" x="235"/>
-        <item m="1" x="118"/>
-        <item m="1" x="334"/>
-        <item m="1" x="188"/>
-        <item m="1" x="394"/>
-        <item m="1" x="447"/>
-        <item m="1" x="9"/>
-        <item m="1" x="523"/>
-        <item m="1" x="119"/>
-        <item m="1" x="443"/>
-        <item m="1" x="345"/>
-        <item m="1" x="146"/>
-        <item m="1" x="413"/>
-        <item m="1" x="544"/>
-        <item m="1" x="442"/>
-        <item m="1" x="265"/>
-        <item m="1" x="139"/>
-        <item m="1" x="100"/>
-        <item m="1" x="407"/>
-        <item m="1" x="175"/>
-        <item m="1" x="313"/>
-        <item m="1" x="75"/>
-        <item m="1" x="469"/>
-        <item m="1" x="296"/>
-        <item m="1" x="295"/>
-        <item m="1" x="107"/>
-        <item m="1" x="335"/>
-        <item m="1" x="457"/>
-        <item m="1" x="317"/>
-        <item m="1" x="56"/>
-        <item m="1" x="222"/>
-        <item m="1" x="351"/>
-        <item m="1" x="534"/>
-        <item m="1" x="272"/>
-        <item m="1" x="560"/>
-        <item m="1" x="398"/>
-        <item m="1" x="91"/>
-        <item m="1" x="18"/>
-        <item m="1" x="546"/>
-        <item m="1" x="453"/>
-        <item m="1" x="192"/>
-        <item m="1" x="251"/>
-        <item m="1" x="530"/>
-        <item m="1" x="169"/>
-        <item m="1" x="51"/>
-        <item m="1" x="250"/>
-        <item m="1" x="377"/>
-        <item m="1" x="212"/>
-        <item m="1" x="185"/>
-        <item m="1" x="341"/>
-        <item m="1" x="322"/>
-        <item m="1" x="208"/>
-        <item m="1" x="515"/>
-        <item m="1" x="205"/>
-        <item m="1" x="289"/>
-        <item m="1" x="535"/>
-        <item m="1" x="375"/>
-        <item m="1" x="490"/>
-        <item m="1" x="189"/>
-        <item m="1" x="194"/>
-        <item m="1" x="393"/>
-        <item m="1" x="455"/>
-        <item m="1" x="403"/>
-        <item m="1" x="11"/>
-        <item m="1" x="507"/>
-        <item m="1" x="36"/>
-        <item m="1" x="395"/>
-        <item m="1" x="379"/>
-        <item m="1" x="37"/>
-        <item m="1" x="121"/>
-        <item m="1" x="171"/>
-        <item m="1" x="304"/>
-        <item m="1" x="2"/>
-        <item m="1" x="433"/>
-        <item m="1" x="109"/>
-        <item m="1" x="408"/>
-        <item m="1" x="42"/>
-        <item m="1" x="223"/>
-        <item m="1" x="292"/>
-        <item m="1" x="570"/>
-        <item m="1" x="124"/>
-        <item m="1" x="291"/>
-        <item m="1" x="260"/>
-        <item m="1" x="342"/>
-        <item m="1" x="541"/>
-        <item m="1" x="19"/>
-        <item m="1" x="23"/>
-        <item m="1" x="10"/>
-        <item m="1" x="73"/>
-        <item m="1" x="4"/>
-        <item m="1" x="527"/>
-        <item m="1" x="232"/>
-        <item m="1" x="508"/>
-        <item m="1" x="431"/>
-        <item m="1" x="373"/>
-        <item m="1" x="155"/>
-        <item m="1" x="85"/>
-        <item m="1" x="98"/>
-        <item m="1" x="486"/>
-        <item m="1" x="104"/>
-        <item m="1" x="325"/>
-        <item m="1" x="555"/>
-        <item m="1" x="521"/>
-        <item m="1" x="528"/>
-        <item m="1" x="96"/>
-        <item m="1" x="230"/>
-        <item m="1" x="248"/>
-        <item m="1" x="137"/>
-        <item m="1" x="518"/>
-        <item m="1" x="481"/>
-        <item m="1" x="320"/>
-        <item m="1" x="47"/>
-        <item m="1" x="184"/>
-        <item m="1" x="94"/>
-        <item m="1" x="520"/>
-        <item m="1" x="70"/>
-        <item m="1" x="202"/>
-        <item m="1" x="384"/>
-        <item m="1" x="153"/>
-        <item m="1" x="283"/>
-        <item m="1" x="277"/>
-        <item m="1" x="180"/>
-        <item m="1" x="399"/>
-        <item m="1" x="368"/>
-        <item m="1" x="336"/>
-        <item m="1" x="174"/>
-        <item m="1" x="516"/>
-        <item m="1" x="92"/>
-        <item m="1" x="17"/>
-        <item m="1" x="14"/>
-        <item m="1" x="279"/>
-        <item m="1" x="470"/>
-        <item m="1" x="432"/>
-        <item m="1" x="53"/>
-        <item m="1" x="306"/>
-        <item m="1" x="385"/>
-        <item m="1" x="426"/>
-        <item m="1" x="410"/>
-        <item m="1" x="22"/>
-        <item m="1" x="311"/>
-        <item m="1" x="501"/>
-        <item m="1" x="276"/>
-        <item m="1" x="132"/>
-        <item m="1" x="383"/>
-        <item m="1" x="350"/>
-        <item m="1" x="273"/>
-        <item m="1" x="88"/>
-        <item m="1" x="166"/>
-        <item m="1" x="140"/>
-        <item m="1" x="294"/>
-        <item m="1" x="444"/>
-        <item m="1" x="55"/>
-        <item m="1" x="539"/>
-        <item m="1" x="376"/>
-        <item m="1" x="45"/>
-        <item m="1" x="353"/>
-        <item m="1" x="172"/>
-        <item m="1" x="83"/>
-        <item m="1" x="40"/>
-        <item m="1" x="246"/>
-        <item m="1" x="231"/>
-        <item m="1" x="465"/>
-        <item m="1" x="492"/>
-        <item m="1" x="239"/>
-        <item m="1" x="378"/>
-        <item m="1" x="420"/>
-        <item m="1" x="569"/>
-        <item m="1" x="93"/>
-        <item m="1" x="259"/>
-        <item m="1" x="302"/>
-        <item m="1" x="297"/>
-        <item m="1" x="316"/>
-        <item m="1" x="206"/>
-        <item m="1" x="26"/>
-        <item m="1" x="125"/>
-        <item m="1" x="168"/>
-        <item m="1" x="561"/>
-        <item m="1" x="39"/>
-        <item m="1" x="81"/>
-        <item m="1" x="425"/>
-        <item m="1" x="79"/>
-        <item m="1" x="220"/>
-        <item m="1" x="181"/>
-        <item m="1" x="566"/>
-        <item m="1" x="270"/>
-        <item m="1" x="340"/>
-        <item m="1" x="217"/>
-        <item m="1" x="514"/>
-        <item m="1" x="203"/>
-        <item m="1" x="438"/>
-        <item m="1" x="82"/>
-        <item m="1" x="43"/>
-        <item m="1" x="204"/>
-        <item m="1" x="382"/>
-        <item m="1" x="480"/>
-        <item m="1" x="162"/>
-        <item m="1" x="34"/>
-        <item m="1" x="44"/>
-        <item m="1" x="348"/>
-        <item m="1" x="370"/>
-        <item m="1" x="374"/>
-        <item m="1" x="326"/>
-        <item m="1" x="505"/>
-        <item m="1" x="1"/>
-        <item m="1" x="460"/>
-        <item m="1" x="215"/>
-        <item m="1" x="363"/>
-        <item m="1" x="550"/>
-        <item m="1" x="152"/>
-        <item m="1" x="533"/>
-        <item m="1" x="15"/>
-        <item m="1" x="517"/>
-        <item m="1" x="281"/>
-        <item m="1" x="253"/>
-        <item m="1" x="321"/>
-        <item m="1" x="72"/>
-        <item m="1" x="57"/>
-        <item m="1" x="105"/>
-        <item m="1" x="466"/>
-        <item m="1" x="129"/>
-        <item m="1" x="333"/>
-        <item m="1" x="483"/>
-        <item m="1" x="264"/>
-        <item m="1" x="213"/>
-        <item m="1" x="209"/>
-        <item m="1" x="513"/>
-        <item m="1" x="338"/>
-        <item m="1" x="482"/>
-        <item m="1" x="69"/>
-        <item m="1" x="183"/>
-        <item m="1" x="108"/>
-        <item m="1" x="406"/>
-        <item m="1" x="386"/>
-        <item m="1" x="361"/>
-        <item m="1" x="509"/>
-        <item m="1" x="381"/>
-        <item m="1" x="314"/>
-        <item m="1" x="364"/>
-        <item m="1" x="50"/>
-        <item m="1" x="13"/>
-        <item m="1" x="177"/>
-        <item m="1" x="200"/>
-        <item m="1" x="236"/>
-        <item m="1" x="233"/>
-        <item m="1" x="337"/>
-        <item m="1" x="552"/>
-        <item m="1" x="504"/>
-        <item m="1" x="572"/>
-        <item m="1" x="128"/>
-        <item m="1" x="415"/>
-        <item m="1" x="493"/>
-        <item m="1" x="33"/>
-        <item m="1" x="309"/>
-        <item m="1" x="127"/>
-        <item m="1" x="371"/>
-        <item m="1" x="545"/>
-        <item m="1" x="219"/>
-        <item m="1" x="244"/>
-        <item m="1" x="157"/>
-        <item m="1" x="474"/>
-        <item m="1" x="71"/>
-        <item m="1" x="16"/>
-        <item m="1" x="257"/>
-        <item m="1" x="347"/>
-        <item m="1" x="495"/>
-        <item m="1" x="354"/>
-        <item m="1" x="195"/>
-        <item m="1" x="158"/>
-        <item m="1" x="65"/>
-        <item m="1" x="467"/>
-        <item m="1" x="446"/>
-        <item m="1" x="210"/>
-        <item m="1" x="8"/>
-        <item m="1" x="388"/>
-        <item m="1" x="472"/>
-        <item m="1" x="238"/>
-        <item m="1" x="196"/>
-        <item m="1" x="537"/>
-        <item m="1" x="74"/>
-        <item m="1" x="435"/>
-        <item m="1" x="506"/>
-        <item m="1" x="114"/>
-        <item m="1" x="412"/>
-        <item m="1" x="286"/>
-        <item m="1" x="173"/>
-        <item m="1" x="287"/>
-        <item m="1" x="503"/>
-        <item m="1" x="548"/>
-        <item m="1" x="58"/>
-        <item m="1" x="247"/>
-        <item m="1" x="318"/>
-        <item m="1" x="404"/>
-        <item m="1" x="445"/>
-        <item m="1" x="307"/>
-        <item m="1" x="21"/>
-        <item m="1" x="191"/>
-        <item m="1" x="475"/>
-        <item m="1" x="28"/>
-        <item m="1" x="149"/>
-        <item m="1" x="86"/>
-        <item m="1" x="331"/>
-        <item m="1" x="24"/>
-        <item m="1" x="343"/>
-        <item m="1" x="143"/>
-        <item m="1" x="512"/>
-        <item m="1" x="225"/>
-        <item m="1" x="562"/>
-        <item m="1" x="559"/>
-        <item m="1" x="416"/>
-        <item m="1" x="256"/>
-        <item m="1" x="499"/>
-        <item m="1" x="303"/>
-        <item m="1" x="66"/>
-        <item m="1" x="20"/>
-        <item m="1" x="150"/>
-        <item m="1" x="422"/>
-        <item m="1" x="522"/>
-        <item m="1" x="418"/>
-        <item m="1" x="240"/>
-        <item m="1" x="285"/>
-        <item m="1" x="159"/>
-        <item m="1" x="346"/>
-        <item m="1" x="391"/>
-        <item m="1" x="63"/>
-        <item m="1" x="414"/>
-        <item m="1" x="402"/>
-        <item m="1" x="538"/>
-        <item m="1" x="288"/>
-        <item m="1" x="103"/>
-        <item m="1" x="258"/>
-        <item m="1" x="349"/>
-        <item m="1" x="489"/>
-        <item m="1" x="330"/>
-        <item m="1" x="41"/>
-        <item m="1" x="27"/>
-        <item m="1" x="392"/>
-        <item m="1" x="448"/>
-        <item m="1" x="131"/>
-        <item m="1" x="461"/>
-        <item m="1" x="439"/>
-        <item m="1" x="451"/>
-        <item m="1" x="97"/>
-        <item m="1" x="450"/>
-        <item m="1" x="64"/>
-        <item m="1" x="165"/>
-        <item m="1" x="510"/>
-        <item m="1" x="471"/>
-        <item m="1" x="226"/>
-        <item m="1" x="551"/>
-        <item m="1" x="67"/>
-        <item m="1" x="136"/>
-        <item m="1" x="319"/>
-        <item m="1" x="355"/>
-        <item m="1" x="359"/>
-        <item m="1" x="424"/>
-        <item m="1" x="440"/>
-        <item m="1" x="59"/>
-        <item m="1" x="329"/>
-        <item m="1" x="563"/>
-        <item m="1" x="366"/>
-        <item m="1" x="6"/>
-        <item m="1" x="500"/>
-        <item m="1" x="400"/>
-        <item m="1" x="197"/>
-        <item m="1" x="557"/>
-        <item m="1" x="556"/>
-        <item m="1" x="31"/>
-        <item m="1" x="89"/>
-        <item m="1" x="282"/>
-        <item m="1" x="525"/>
-        <item m="1" x="84"/>
-        <item m="1" x="497"/>
-        <item m="1" x="38"/>
-        <item m="1" x="214"/>
-        <item m="1" x="141"/>
-        <item m="1" x="216"/>
-        <item m="1" x="163"/>
-        <item m="1" x="113"/>
-        <item m="1" x="135"/>
-        <item m="1" x="148"/>
-        <item m="1" x="536"/>
-        <item m="1" x="187"/>
-        <item m="1" x="299"/>
-        <item m="1" x="380"/>
-        <item m="1" x="511"/>
-        <item m="1" x="115"/>
-        <item m="1" x="430"/>
-        <item m="1" x="356"/>
-        <item m="1" x="227"/>
-        <item m="1" x="145"/>
-        <item m="1" x="315"/>
-        <item m="1" x="207"/>
-        <item m="1" x="154"/>
-        <item m="1" x="524"/>
-        <item m="1" x="324"/>
-        <item m="1" x="477"/>
-        <item m="1" x="62"/>
-        <item m="1" x="95"/>
-        <item m="1" x="428"/>
-        <item m="1" x="254"/>
-        <item m="1" x="101"/>
-        <item m="1" x="46"/>
-        <item m="1" x="456"/>
-        <item m="1" x="138"/>
-        <item m="1" x="228"/>
-        <item m="1" x="176"/>
-        <item m="1" x="502"/>
-        <item m="1" x="280"/>
-        <item m="1" x="3"/>
-        <item m="1" x="417"/>
-        <item m="1" x="268"/>
-        <item m="1" x="554"/>
-        <item m="1" x="242"/>
-        <item m="1" x="496"/>
-        <item m="1" x="274"/>
-        <item m="1" x="134"/>
-        <item m="1" x="120"/>
-        <item m="1" x="221"/>
-        <item m="1" x="369"/>
-        <item m="1" x="267"/>
-        <item m="1" x="498"/>
-        <item m="1" x="102"/>
-        <item m="1" x="462"/>
-        <item m="1" x="170"/>
-        <item m="1" x="468"/>
-        <item m="1" x="454"/>
-        <item m="1" x="32"/>
-        <item m="1" x="411"/>
-        <item m="1" x="464"/>
-        <item m="1" x="328"/>
-        <item m="1" x="365"/>
-        <item m="1" x="372"/>
-        <item m="1" x="261"/>
-        <item m="1" x="12"/>
-        <item m="1" x="357"/>
-        <item m="1" x="323"/>
-        <item m="1" x="458"/>
-        <item m="1" x="255"/>
-        <item m="1" x="99"/>
-        <item m="1" x="387"/>
-        <item m="1" x="308"/>
-        <item m="1" x="49"/>
-        <item m="1" x="549"/>
-        <item m="1" x="218"/>
-        <item m="1" x="29"/>
-        <item m="1" x="558"/>
-        <item m="1" x="543"/>
-        <item m="1" x="344"/>
-        <item m="1" x="278"/>
-        <item m="1" x="339"/>
-        <item m="1" x="390"/>
-        <item m="1" x="358"/>
-        <item m="1" x="142"/>
-        <item m="1" x="409"/>
-        <item m="1" x="224"/>
-        <item m="1" x="542"/>
-        <item m="1" x="5"/>
-        <item m="1" x="568"/>
-        <item m="1" x="179"/>
-        <item m="1" x="452"/>
-        <item m="1" x="293"/>
-        <item m="1" x="429"/>
-        <item m="1" x="252"/>
-        <item m="1" x="284"/>
-        <item m="1" x="78"/>
-        <item m="1" x="488"/>
-        <item m="1" x="567"/>
-        <item m="1" x="199"/>
-        <item m="1" x="123"/>
-        <item m="1" x="305"/>
-        <item m="1" x="234"/>
-        <item m="1" x="186"/>
-        <item m="1" x="485"/>
-        <item m="1" x="80"/>
-        <item m="1" x="476"/>
-        <item m="1" x="25"/>
-        <item m="1" x="198"/>
-        <item m="1" x="126"/>
-        <item m="1" x="122"/>
-        <item m="1" x="529"/>
-        <item m="1" x="300"/>
-        <item m="1" x="112"/>
-        <item m="1" x="178"/>
-        <item m="1" x="441"/>
-        <item m="1" x="478"/>
-        <item m="1" x="117"/>
-        <item m="1" x="571"/>
-        <item m="1" x="211"/>
-        <item m="1" x="494"/>
-        <item m="1" x="68"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="29">
+      <items count="1">
         <item x="0"/>
-        <item m="1" x="18"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="2"/>
-        <item m="1" x="19"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="27"/>
-        <item m="1" x="7"/>
-        <item m="1" x="12"/>
-        <item m="1" x="15"/>
-        <item m="1" x="26"/>
-        <item m="1" x="1"/>
-        <item m="1" x="28"/>
-        <item m="1" x="20"/>
-        <item m="1" x="23"/>
-        <item m="1" x="25"/>
-        <item m="1" x="21"/>
-        <item m="1" x="8"/>
-        <item m="1" x="22"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item m="1" x="16"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="10"/>
-        <item m="1" x="24"/>
-        <item m="1" x="14"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="23">
-        <item x="0"/>
-        <item m="1" x="22"/>
-        <item m="1" x="16"/>
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="18"/>
-        <item m="1" x="15"/>
-        <item m="1" x="7"/>
-        <item m="1" x="3"/>
-        <item m="1" x="21"/>
-        <item m="1" x="4"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="12"/>
-        <item m="1" x="8"/>
-        <item m="1" x="17"/>
-        <item m="1" x="13"/>
-        <item m="1" x="2"/>
-        <item m="1" x="11"/>
-        <item m="1" x="14"/>
-        <item m="1" x="1"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0" defaultSubtotal="0">
-      <items count="3">
+      <items count="1">
         <item x="0"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0" defaultSubtotal="0">
-      <items count="3">
+      <items count="1">
         <item x="0"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="3">
-    <field x="1"/>
+  <rowFields count="2">
     <field x="2"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="3">
     <i>
       <x/>
     </i>
     <i r="1">
-      <x/>
-    </i>
-    <i r="2">
       <x/>
     </i>
     <i t="grand">
@@ -5769,637 +4477,36 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E5:E8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="573">
+      <items count="1">
         <item x="0"/>
-        <item m="1" x="76"/>
-        <item m="1" x="423"/>
-        <item m="1" x="48"/>
-        <item m="1" x="7"/>
-        <item m="1" x="463"/>
-        <item m="1" x="90"/>
-        <item m="1" x="519"/>
-        <item m="1" x="419"/>
-        <item m="1" x="54"/>
-        <item m="1" x="275"/>
-        <item m="1" x="473"/>
-        <item m="1" x="147"/>
-        <item m="1" x="190"/>
-        <item m="1" x="396"/>
-        <item m="1" x="110"/>
-        <item m="1" x="565"/>
-        <item m="1" x="271"/>
-        <item m="1" x="312"/>
-        <item m="1" x="491"/>
-        <item m="1" x="298"/>
-        <item m="1" x="434"/>
-        <item m="1" x="367"/>
-        <item m="1" x="111"/>
-        <item m="1" x="327"/>
-        <item m="1" x="30"/>
-        <item m="1" x="164"/>
-        <item m="1" x="87"/>
-        <item m="1" x="479"/>
-        <item m="1" x="193"/>
-        <item m="1" x="167"/>
-        <item m="1" x="427"/>
-        <item m="1" x="60"/>
-        <item m="1" x="144"/>
-        <item m="1" x="52"/>
-        <item m="1" x="487"/>
-        <item m="1" x="332"/>
-        <item m="1" x="290"/>
-        <item m="1" x="133"/>
-        <item m="1" x="421"/>
-        <item m="1" x="249"/>
-        <item m="1" x="229"/>
-        <item m="1" x="360"/>
-        <item m="1" x="526"/>
-        <item m="1" x="310"/>
-        <item m="1" x="241"/>
-        <item m="1" x="532"/>
-        <item m="1" x="531"/>
-        <item m="1" x="405"/>
-        <item m="1" x="160"/>
-        <item m="1" x="484"/>
-        <item m="1" x="269"/>
-        <item m="1" x="540"/>
-        <item m="1" x="245"/>
-        <item m="1" x="201"/>
-        <item m="1" x="156"/>
-        <item m="1" x="182"/>
-        <item m="1" x="564"/>
-        <item m="1" x="263"/>
-        <item m="1" x="77"/>
-        <item m="1" x="401"/>
-        <item m="1" x="61"/>
-        <item m="1" x="116"/>
-        <item m="1" x="459"/>
-        <item m="1" x="106"/>
-        <item m="1" x="449"/>
-        <item m="1" x="243"/>
-        <item m="1" x="389"/>
-        <item m="1" x="547"/>
-        <item m="1" x="437"/>
-        <item m="1" x="301"/>
-        <item m="1" x="352"/>
-        <item m="1" x="161"/>
-        <item m="1" x="35"/>
-        <item m="1" x="237"/>
-        <item m="1" x="397"/>
-        <item m="1" x="151"/>
-        <item m="1" x="553"/>
-        <item m="1" x="262"/>
-        <item m="1" x="130"/>
-        <item m="1" x="266"/>
-        <item m="1" x="362"/>
-        <item m="1" x="436"/>
-        <item m="1" x="235"/>
-        <item m="1" x="118"/>
-        <item m="1" x="334"/>
-        <item m="1" x="188"/>
-        <item m="1" x="394"/>
-        <item m="1" x="447"/>
-        <item m="1" x="9"/>
-        <item m="1" x="523"/>
-        <item m="1" x="119"/>
-        <item m="1" x="443"/>
-        <item m="1" x="345"/>
-        <item m="1" x="146"/>
-        <item m="1" x="413"/>
-        <item m="1" x="544"/>
-        <item m="1" x="442"/>
-        <item m="1" x="265"/>
-        <item m="1" x="139"/>
-        <item m="1" x="100"/>
-        <item m="1" x="407"/>
-        <item m="1" x="175"/>
-        <item m="1" x="313"/>
-        <item m="1" x="75"/>
-        <item m="1" x="469"/>
-        <item m="1" x="296"/>
-        <item m="1" x="295"/>
-        <item m="1" x="107"/>
-        <item m="1" x="335"/>
-        <item m="1" x="457"/>
-        <item m="1" x="317"/>
-        <item m="1" x="56"/>
-        <item m="1" x="222"/>
-        <item m="1" x="351"/>
-        <item m="1" x="534"/>
-        <item m="1" x="272"/>
-        <item m="1" x="560"/>
-        <item m="1" x="398"/>
-        <item m="1" x="91"/>
-        <item m="1" x="18"/>
-        <item m="1" x="546"/>
-        <item m="1" x="453"/>
-        <item m="1" x="192"/>
-        <item m="1" x="251"/>
-        <item m="1" x="530"/>
-        <item m="1" x="169"/>
-        <item m="1" x="51"/>
-        <item m="1" x="250"/>
-        <item m="1" x="377"/>
-        <item m="1" x="212"/>
-        <item m="1" x="185"/>
-        <item m="1" x="341"/>
-        <item m="1" x="322"/>
-        <item m="1" x="208"/>
-        <item m="1" x="515"/>
-        <item m="1" x="205"/>
-        <item m="1" x="289"/>
-        <item m="1" x="535"/>
-        <item m="1" x="375"/>
-        <item m="1" x="490"/>
-        <item m="1" x="189"/>
-        <item m="1" x="194"/>
-        <item m="1" x="393"/>
-        <item m="1" x="455"/>
-        <item m="1" x="403"/>
-        <item m="1" x="11"/>
-        <item m="1" x="507"/>
-        <item m="1" x="36"/>
-        <item m="1" x="395"/>
-        <item m="1" x="379"/>
-        <item m="1" x="37"/>
-        <item m="1" x="121"/>
-        <item m="1" x="171"/>
-        <item m="1" x="304"/>
-        <item m="1" x="2"/>
-        <item m="1" x="433"/>
-        <item m="1" x="109"/>
-        <item m="1" x="408"/>
-        <item m="1" x="42"/>
-        <item m="1" x="223"/>
-        <item m="1" x="292"/>
-        <item m="1" x="570"/>
-        <item m="1" x="124"/>
-        <item m="1" x="291"/>
-        <item m="1" x="260"/>
-        <item m="1" x="342"/>
-        <item m="1" x="541"/>
-        <item m="1" x="19"/>
-        <item m="1" x="23"/>
-        <item m="1" x="10"/>
-        <item m="1" x="73"/>
-        <item m="1" x="4"/>
-        <item m="1" x="527"/>
-        <item m="1" x="232"/>
-        <item m="1" x="508"/>
-        <item m="1" x="431"/>
-        <item m="1" x="373"/>
-        <item m="1" x="155"/>
-        <item m="1" x="85"/>
-        <item m="1" x="98"/>
-        <item m="1" x="486"/>
-        <item m="1" x="104"/>
-        <item m="1" x="325"/>
-        <item m="1" x="555"/>
-        <item m="1" x="521"/>
-        <item m="1" x="528"/>
-        <item m="1" x="96"/>
-        <item m="1" x="230"/>
-        <item m="1" x="248"/>
-        <item m="1" x="137"/>
-        <item m="1" x="518"/>
-        <item m="1" x="481"/>
-        <item m="1" x="320"/>
-        <item m="1" x="47"/>
-        <item m="1" x="184"/>
-        <item m="1" x="94"/>
-        <item m="1" x="520"/>
-        <item m="1" x="70"/>
-        <item m="1" x="202"/>
-        <item m="1" x="384"/>
-        <item m="1" x="153"/>
-        <item m="1" x="283"/>
-        <item m="1" x="277"/>
-        <item m="1" x="180"/>
-        <item m="1" x="399"/>
-        <item m="1" x="368"/>
-        <item m="1" x="336"/>
-        <item m="1" x="174"/>
-        <item m="1" x="516"/>
-        <item m="1" x="92"/>
-        <item m="1" x="17"/>
-        <item m="1" x="14"/>
-        <item m="1" x="279"/>
-        <item m="1" x="470"/>
-        <item m="1" x="432"/>
-        <item m="1" x="53"/>
-        <item m="1" x="306"/>
-        <item m="1" x="385"/>
-        <item m="1" x="426"/>
-        <item m="1" x="410"/>
-        <item m="1" x="22"/>
-        <item m="1" x="311"/>
-        <item m="1" x="501"/>
-        <item m="1" x="276"/>
-        <item m="1" x="132"/>
-        <item m="1" x="383"/>
-        <item m="1" x="350"/>
-        <item m="1" x="273"/>
-        <item m="1" x="88"/>
-        <item m="1" x="166"/>
-        <item m="1" x="140"/>
-        <item m="1" x="294"/>
-        <item m="1" x="444"/>
-        <item m="1" x="55"/>
-        <item m="1" x="539"/>
-        <item m="1" x="376"/>
-        <item m="1" x="45"/>
-        <item m="1" x="353"/>
-        <item m="1" x="172"/>
-        <item m="1" x="83"/>
-        <item m="1" x="40"/>
-        <item m="1" x="246"/>
-        <item m="1" x="231"/>
-        <item m="1" x="465"/>
-        <item m="1" x="492"/>
-        <item m="1" x="239"/>
-        <item m="1" x="378"/>
-        <item m="1" x="420"/>
-        <item m="1" x="569"/>
-        <item m="1" x="93"/>
-        <item m="1" x="259"/>
-        <item m="1" x="302"/>
-        <item m="1" x="297"/>
-        <item m="1" x="316"/>
-        <item m="1" x="206"/>
-        <item m="1" x="26"/>
-        <item m="1" x="125"/>
-        <item m="1" x="168"/>
-        <item m="1" x="561"/>
-        <item m="1" x="39"/>
-        <item m="1" x="81"/>
-        <item m="1" x="425"/>
-        <item m="1" x="79"/>
-        <item m="1" x="220"/>
-        <item m="1" x="181"/>
-        <item m="1" x="566"/>
-        <item m="1" x="270"/>
-        <item m="1" x="340"/>
-        <item m="1" x="217"/>
-        <item m="1" x="514"/>
-        <item m="1" x="203"/>
-        <item m="1" x="438"/>
-        <item m="1" x="82"/>
-        <item m="1" x="43"/>
-        <item m="1" x="204"/>
-        <item m="1" x="382"/>
-        <item m="1" x="480"/>
-        <item m="1" x="162"/>
-        <item m="1" x="34"/>
-        <item m="1" x="44"/>
-        <item m="1" x="348"/>
-        <item m="1" x="370"/>
-        <item m="1" x="374"/>
-        <item m="1" x="326"/>
-        <item m="1" x="505"/>
-        <item m="1" x="1"/>
-        <item m="1" x="460"/>
-        <item m="1" x="215"/>
-        <item m="1" x="363"/>
-        <item m="1" x="550"/>
-        <item m="1" x="152"/>
-        <item m="1" x="533"/>
-        <item m="1" x="15"/>
-        <item m="1" x="517"/>
-        <item m="1" x="281"/>
-        <item m="1" x="253"/>
-        <item m="1" x="321"/>
-        <item m="1" x="72"/>
-        <item m="1" x="57"/>
-        <item m="1" x="105"/>
-        <item m="1" x="466"/>
-        <item m="1" x="129"/>
-        <item m="1" x="333"/>
-        <item m="1" x="483"/>
-        <item m="1" x="264"/>
-        <item m="1" x="213"/>
-        <item m="1" x="209"/>
-        <item m="1" x="513"/>
-        <item m="1" x="338"/>
-        <item m="1" x="482"/>
-        <item m="1" x="69"/>
-        <item m="1" x="183"/>
-        <item m="1" x="108"/>
-        <item m="1" x="406"/>
-        <item m="1" x="386"/>
-        <item m="1" x="361"/>
-        <item m="1" x="509"/>
-        <item m="1" x="381"/>
-        <item m="1" x="314"/>
-        <item m="1" x="364"/>
-        <item m="1" x="50"/>
-        <item m="1" x="13"/>
-        <item m="1" x="177"/>
-        <item m="1" x="200"/>
-        <item m="1" x="236"/>
-        <item m="1" x="233"/>
-        <item m="1" x="337"/>
-        <item m="1" x="552"/>
-        <item m="1" x="504"/>
-        <item m="1" x="572"/>
-        <item m="1" x="128"/>
-        <item m="1" x="415"/>
-        <item m="1" x="493"/>
-        <item m="1" x="33"/>
-        <item m="1" x="309"/>
-        <item m="1" x="127"/>
-        <item m="1" x="371"/>
-        <item m="1" x="545"/>
-        <item m="1" x="219"/>
-        <item m="1" x="244"/>
-        <item m="1" x="157"/>
-        <item m="1" x="474"/>
-        <item m="1" x="71"/>
-        <item m="1" x="16"/>
-        <item m="1" x="257"/>
-        <item m="1" x="347"/>
-        <item m="1" x="495"/>
-        <item m="1" x="354"/>
-        <item m="1" x="195"/>
-        <item m="1" x="158"/>
-        <item m="1" x="65"/>
-        <item m="1" x="467"/>
-        <item m="1" x="446"/>
-        <item m="1" x="210"/>
-        <item m="1" x="8"/>
-        <item m="1" x="388"/>
-        <item m="1" x="472"/>
-        <item m="1" x="238"/>
-        <item m="1" x="196"/>
-        <item m="1" x="537"/>
-        <item m="1" x="74"/>
-        <item m="1" x="435"/>
-        <item m="1" x="506"/>
-        <item m="1" x="114"/>
-        <item m="1" x="412"/>
-        <item m="1" x="286"/>
-        <item m="1" x="173"/>
-        <item m="1" x="287"/>
-        <item m="1" x="503"/>
-        <item m="1" x="548"/>
-        <item m="1" x="58"/>
-        <item m="1" x="247"/>
-        <item m="1" x="318"/>
-        <item m="1" x="404"/>
-        <item m="1" x="445"/>
-        <item m="1" x="307"/>
-        <item m="1" x="21"/>
-        <item m="1" x="191"/>
-        <item m="1" x="475"/>
-        <item m="1" x="28"/>
-        <item m="1" x="149"/>
-        <item m="1" x="86"/>
-        <item m="1" x="331"/>
-        <item m="1" x="24"/>
-        <item m="1" x="343"/>
-        <item m="1" x="143"/>
-        <item m="1" x="512"/>
-        <item m="1" x="225"/>
-        <item m="1" x="562"/>
-        <item m="1" x="559"/>
-        <item m="1" x="416"/>
-        <item m="1" x="256"/>
-        <item m="1" x="499"/>
-        <item m="1" x="303"/>
-        <item m="1" x="66"/>
-        <item m="1" x="20"/>
-        <item m="1" x="150"/>
-        <item m="1" x="422"/>
-        <item m="1" x="522"/>
-        <item m="1" x="418"/>
-        <item m="1" x="240"/>
-        <item m="1" x="285"/>
-        <item m="1" x="159"/>
-        <item m="1" x="346"/>
-        <item m="1" x="391"/>
-        <item m="1" x="63"/>
-        <item m="1" x="414"/>
-        <item m="1" x="402"/>
-        <item m="1" x="538"/>
-        <item m="1" x="288"/>
-        <item m="1" x="103"/>
-        <item m="1" x="258"/>
-        <item m="1" x="349"/>
-        <item m="1" x="489"/>
-        <item m="1" x="330"/>
-        <item m="1" x="41"/>
-        <item m="1" x="27"/>
-        <item m="1" x="392"/>
-        <item m="1" x="448"/>
-        <item m="1" x="131"/>
-        <item m="1" x="461"/>
-        <item m="1" x="439"/>
-        <item m="1" x="451"/>
-        <item m="1" x="97"/>
-        <item m="1" x="450"/>
-        <item m="1" x="64"/>
-        <item m="1" x="165"/>
-        <item m="1" x="510"/>
-        <item m="1" x="471"/>
-        <item m="1" x="226"/>
-        <item m="1" x="551"/>
-        <item m="1" x="67"/>
-        <item m="1" x="136"/>
-        <item m="1" x="319"/>
-        <item m="1" x="355"/>
-        <item m="1" x="359"/>
-        <item m="1" x="424"/>
-        <item m="1" x="440"/>
-        <item m="1" x="59"/>
-        <item m="1" x="329"/>
-        <item m="1" x="563"/>
-        <item m="1" x="366"/>
-        <item m="1" x="6"/>
-        <item m="1" x="500"/>
-        <item m="1" x="400"/>
-        <item m="1" x="197"/>
-        <item m="1" x="557"/>
-        <item m="1" x="556"/>
-        <item m="1" x="31"/>
-        <item m="1" x="89"/>
-        <item m="1" x="282"/>
-        <item m="1" x="525"/>
-        <item m="1" x="84"/>
-        <item m="1" x="497"/>
-        <item m="1" x="38"/>
-        <item m="1" x="214"/>
-        <item m="1" x="141"/>
-        <item m="1" x="216"/>
-        <item m="1" x="163"/>
-        <item m="1" x="113"/>
-        <item m="1" x="135"/>
-        <item m="1" x="148"/>
-        <item m="1" x="536"/>
-        <item m="1" x="187"/>
-        <item m="1" x="299"/>
-        <item m="1" x="380"/>
-        <item m="1" x="511"/>
-        <item m="1" x="115"/>
-        <item m="1" x="430"/>
-        <item m="1" x="356"/>
-        <item m="1" x="227"/>
-        <item m="1" x="145"/>
-        <item m="1" x="315"/>
-        <item m="1" x="207"/>
-        <item m="1" x="154"/>
-        <item m="1" x="524"/>
-        <item m="1" x="324"/>
-        <item m="1" x="477"/>
-        <item m="1" x="62"/>
-        <item m="1" x="95"/>
-        <item m="1" x="428"/>
-        <item m="1" x="254"/>
-        <item m="1" x="101"/>
-        <item m="1" x="46"/>
-        <item m="1" x="456"/>
-        <item m="1" x="138"/>
-        <item m="1" x="228"/>
-        <item m="1" x="176"/>
-        <item m="1" x="502"/>
-        <item m="1" x="280"/>
-        <item m="1" x="3"/>
-        <item m="1" x="417"/>
-        <item m="1" x="268"/>
-        <item m="1" x="554"/>
-        <item m="1" x="242"/>
-        <item m="1" x="496"/>
-        <item m="1" x="274"/>
-        <item m="1" x="134"/>
-        <item m="1" x="120"/>
-        <item m="1" x="221"/>
-        <item m="1" x="369"/>
-        <item m="1" x="267"/>
-        <item m="1" x="498"/>
-        <item m="1" x="102"/>
-        <item m="1" x="462"/>
-        <item m="1" x="170"/>
-        <item m="1" x="468"/>
-        <item m="1" x="454"/>
-        <item m="1" x="32"/>
-        <item m="1" x="411"/>
-        <item m="1" x="464"/>
-        <item m="1" x="328"/>
-        <item m="1" x="365"/>
-        <item m="1" x="372"/>
-        <item m="1" x="261"/>
-        <item m="1" x="12"/>
-        <item m="1" x="357"/>
-        <item m="1" x="323"/>
-        <item m="1" x="458"/>
-        <item m="1" x="255"/>
-        <item m="1" x="99"/>
-        <item m="1" x="387"/>
-        <item m="1" x="308"/>
-        <item m="1" x="49"/>
-        <item m="1" x="549"/>
-        <item m="1" x="218"/>
-        <item m="1" x="29"/>
-        <item m="1" x="558"/>
-        <item m="1" x="543"/>
-        <item m="1" x="344"/>
-        <item m="1" x="278"/>
-        <item m="1" x="339"/>
-        <item m="1" x="390"/>
-        <item m="1" x="358"/>
-        <item m="1" x="142"/>
-        <item m="1" x="409"/>
-        <item m="1" x="224"/>
-        <item m="1" x="542"/>
-        <item m="1" x="5"/>
-        <item m="1" x="568"/>
-        <item m="1" x="179"/>
-        <item m="1" x="452"/>
-        <item m="1" x="293"/>
-        <item m="1" x="429"/>
-        <item m="1" x="252"/>
-        <item m="1" x="284"/>
-        <item m="1" x="78"/>
-        <item m="1" x="488"/>
-        <item m="1" x="567"/>
-        <item m="1" x="199"/>
-        <item m="1" x="123"/>
-        <item m="1" x="305"/>
-        <item m="1" x="234"/>
-        <item m="1" x="186"/>
-        <item m="1" x="485"/>
-        <item m="1" x="80"/>
-        <item m="1" x="476"/>
-        <item m="1" x="25"/>
-        <item m="1" x="198"/>
-        <item m="1" x="126"/>
-        <item m="1" x="122"/>
-        <item m="1" x="529"/>
-        <item m="1" x="300"/>
-        <item m="1" x="112"/>
-        <item m="1" x="178"/>
-        <item m="1" x="441"/>
-        <item m="1" x="478"/>
-        <item m="1" x="117"/>
-        <item m="1" x="571"/>
-        <item m="1" x="211"/>
-        <item m="1" x="494"/>
-        <item m="1" x="68"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="29">
+      <items count="1">
         <item x="0"/>
-        <item m="1" x="18"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="2"/>
-        <item m="1" x="19"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="27"/>
-        <item m="1" x="7"/>
-        <item m="1" x="12"/>
-        <item m="1" x="15"/>
-        <item m="1" x="26"/>
-        <item m="1" x="1"/>
-        <item m="1" x="28"/>
-        <item m="1" x="20"/>
-        <item m="1" x="23"/>
-        <item m="1" x="25"/>
-        <item m="1" x="21"/>
-        <item m="1" x="8"/>
-        <item m="1" x="22"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item m="1" x="16"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="10"/>
-        <item m="1" x="24"/>
-        <item m="1" x="14"/>
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" showAll="0" defaultSubtotal="0">
-      <items count="3">
+      <items count="1">
         <item x="0"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0" defaultSubtotal="0">
-      <items count="3">
+      <items count="1">
         <item x="0"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -6430,663 +4537,40 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:A9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="573">
+      <items count="1">
         <item x="0"/>
-        <item m="1" x="76"/>
-        <item m="1" x="423"/>
-        <item m="1" x="48"/>
-        <item m="1" x="7"/>
-        <item m="1" x="463"/>
-        <item m="1" x="90"/>
-        <item m="1" x="519"/>
-        <item m="1" x="419"/>
-        <item m="1" x="54"/>
-        <item m="1" x="275"/>
-        <item m="1" x="473"/>
-        <item m="1" x="147"/>
-        <item m="1" x="190"/>
-        <item m="1" x="396"/>
-        <item m="1" x="110"/>
-        <item m="1" x="565"/>
-        <item m="1" x="271"/>
-        <item m="1" x="312"/>
-        <item m="1" x="491"/>
-        <item m="1" x="298"/>
-        <item m="1" x="434"/>
-        <item m="1" x="367"/>
-        <item m="1" x="111"/>
-        <item m="1" x="327"/>
-        <item m="1" x="30"/>
-        <item m="1" x="164"/>
-        <item m="1" x="87"/>
-        <item m="1" x="479"/>
-        <item m="1" x="193"/>
-        <item m="1" x="167"/>
-        <item m="1" x="427"/>
-        <item m="1" x="60"/>
-        <item m="1" x="144"/>
-        <item m="1" x="52"/>
-        <item m="1" x="487"/>
-        <item m="1" x="332"/>
-        <item m="1" x="290"/>
-        <item m="1" x="133"/>
-        <item m="1" x="421"/>
-        <item m="1" x="249"/>
-        <item m="1" x="229"/>
-        <item m="1" x="360"/>
-        <item m="1" x="526"/>
-        <item m="1" x="310"/>
-        <item m="1" x="241"/>
-        <item m="1" x="532"/>
-        <item m="1" x="531"/>
-        <item m="1" x="405"/>
-        <item m="1" x="160"/>
-        <item m="1" x="484"/>
-        <item m="1" x="269"/>
-        <item m="1" x="540"/>
-        <item m="1" x="245"/>
-        <item m="1" x="201"/>
-        <item m="1" x="156"/>
-        <item m="1" x="182"/>
-        <item m="1" x="564"/>
-        <item m="1" x="263"/>
-        <item m="1" x="77"/>
-        <item m="1" x="401"/>
-        <item m="1" x="61"/>
-        <item m="1" x="116"/>
-        <item m="1" x="459"/>
-        <item m="1" x="106"/>
-        <item m="1" x="449"/>
-        <item m="1" x="243"/>
-        <item m="1" x="389"/>
-        <item m="1" x="547"/>
-        <item m="1" x="437"/>
-        <item m="1" x="301"/>
-        <item m="1" x="352"/>
-        <item m="1" x="161"/>
-        <item m="1" x="35"/>
-        <item m="1" x="237"/>
-        <item m="1" x="397"/>
-        <item m="1" x="151"/>
-        <item m="1" x="553"/>
-        <item m="1" x="262"/>
-        <item m="1" x="130"/>
-        <item m="1" x="266"/>
-        <item m="1" x="362"/>
-        <item m="1" x="436"/>
-        <item m="1" x="235"/>
-        <item m="1" x="118"/>
-        <item m="1" x="334"/>
-        <item m="1" x="188"/>
-        <item m="1" x="394"/>
-        <item m="1" x="447"/>
-        <item m="1" x="9"/>
-        <item m="1" x="523"/>
-        <item m="1" x="119"/>
-        <item m="1" x="443"/>
-        <item m="1" x="345"/>
-        <item m="1" x="146"/>
-        <item m="1" x="413"/>
-        <item m="1" x="544"/>
-        <item m="1" x="442"/>
-        <item m="1" x="265"/>
-        <item m="1" x="139"/>
-        <item m="1" x="100"/>
-        <item m="1" x="407"/>
-        <item m="1" x="175"/>
-        <item m="1" x="313"/>
-        <item m="1" x="75"/>
-        <item m="1" x="469"/>
-        <item m="1" x="296"/>
-        <item m="1" x="295"/>
-        <item m="1" x="107"/>
-        <item m="1" x="335"/>
-        <item m="1" x="457"/>
-        <item m="1" x="317"/>
-        <item m="1" x="56"/>
-        <item m="1" x="222"/>
-        <item m="1" x="351"/>
-        <item m="1" x="534"/>
-        <item m="1" x="272"/>
-        <item m="1" x="560"/>
-        <item m="1" x="398"/>
-        <item m="1" x="91"/>
-        <item m="1" x="18"/>
-        <item m="1" x="546"/>
-        <item m="1" x="453"/>
-        <item m="1" x="192"/>
-        <item m="1" x="251"/>
-        <item m="1" x="530"/>
-        <item m="1" x="169"/>
-        <item m="1" x="51"/>
-        <item m="1" x="250"/>
-        <item m="1" x="377"/>
-        <item m="1" x="212"/>
-        <item m="1" x="185"/>
-        <item m="1" x="341"/>
-        <item m="1" x="322"/>
-        <item m="1" x="208"/>
-        <item m="1" x="515"/>
-        <item m="1" x="205"/>
-        <item m="1" x="289"/>
-        <item m="1" x="535"/>
-        <item m="1" x="375"/>
-        <item m="1" x="490"/>
-        <item m="1" x="189"/>
-        <item m="1" x="194"/>
-        <item m="1" x="393"/>
-        <item m="1" x="455"/>
-        <item m="1" x="403"/>
-        <item m="1" x="11"/>
-        <item m="1" x="507"/>
-        <item m="1" x="36"/>
-        <item m="1" x="395"/>
-        <item m="1" x="379"/>
-        <item m="1" x="37"/>
-        <item m="1" x="121"/>
-        <item m="1" x="171"/>
-        <item m="1" x="304"/>
-        <item m="1" x="2"/>
-        <item m="1" x="433"/>
-        <item m="1" x="109"/>
-        <item m="1" x="408"/>
-        <item m="1" x="42"/>
-        <item m="1" x="223"/>
-        <item m="1" x="292"/>
-        <item m="1" x="570"/>
-        <item m="1" x="124"/>
-        <item m="1" x="291"/>
-        <item m="1" x="260"/>
-        <item m="1" x="342"/>
-        <item m="1" x="541"/>
-        <item m="1" x="19"/>
-        <item m="1" x="23"/>
-        <item m="1" x="10"/>
-        <item m="1" x="73"/>
-        <item m="1" x="4"/>
-        <item m="1" x="527"/>
-        <item m="1" x="232"/>
-        <item m="1" x="508"/>
-        <item m="1" x="431"/>
-        <item m="1" x="373"/>
-        <item m="1" x="155"/>
-        <item m="1" x="85"/>
-        <item m="1" x="98"/>
-        <item m="1" x="486"/>
-        <item m="1" x="104"/>
-        <item m="1" x="325"/>
-        <item m="1" x="555"/>
-        <item m="1" x="521"/>
-        <item m="1" x="528"/>
-        <item m="1" x="96"/>
-        <item m="1" x="230"/>
-        <item m="1" x="248"/>
-        <item m="1" x="137"/>
-        <item m="1" x="518"/>
-        <item m="1" x="481"/>
-        <item m="1" x="320"/>
-        <item m="1" x="47"/>
-        <item m="1" x="184"/>
-        <item m="1" x="94"/>
-        <item m="1" x="520"/>
-        <item m="1" x="70"/>
-        <item m="1" x="202"/>
-        <item m="1" x="384"/>
-        <item m="1" x="153"/>
-        <item m="1" x="283"/>
-        <item m="1" x="277"/>
-        <item m="1" x="180"/>
-        <item m="1" x="399"/>
-        <item m="1" x="368"/>
-        <item m="1" x="336"/>
-        <item m="1" x="174"/>
-        <item m="1" x="516"/>
-        <item m="1" x="92"/>
-        <item m="1" x="17"/>
-        <item m="1" x="14"/>
-        <item m="1" x="279"/>
-        <item m="1" x="470"/>
-        <item m="1" x="432"/>
-        <item m="1" x="53"/>
-        <item m="1" x="306"/>
-        <item m="1" x="385"/>
-        <item m="1" x="426"/>
-        <item m="1" x="410"/>
-        <item m="1" x="22"/>
-        <item m="1" x="311"/>
-        <item m="1" x="501"/>
-        <item m="1" x="276"/>
-        <item m="1" x="132"/>
-        <item m="1" x="383"/>
-        <item m="1" x="350"/>
-        <item m="1" x="273"/>
-        <item m="1" x="88"/>
-        <item m="1" x="166"/>
-        <item m="1" x="140"/>
-        <item m="1" x="294"/>
-        <item m="1" x="444"/>
-        <item m="1" x="55"/>
-        <item m="1" x="539"/>
-        <item m="1" x="376"/>
-        <item m="1" x="45"/>
-        <item m="1" x="353"/>
-        <item m="1" x="172"/>
-        <item m="1" x="83"/>
-        <item m="1" x="40"/>
-        <item m="1" x="246"/>
-        <item m="1" x="231"/>
-        <item m="1" x="465"/>
-        <item m="1" x="492"/>
-        <item m="1" x="239"/>
-        <item m="1" x="378"/>
-        <item m="1" x="420"/>
-        <item m="1" x="569"/>
-        <item m="1" x="93"/>
-        <item m="1" x="259"/>
-        <item m="1" x="302"/>
-        <item m="1" x="297"/>
-        <item m="1" x="316"/>
-        <item m="1" x="206"/>
-        <item m="1" x="26"/>
-        <item m="1" x="125"/>
-        <item m="1" x="168"/>
-        <item m="1" x="561"/>
-        <item m="1" x="39"/>
-        <item m="1" x="81"/>
-        <item m="1" x="425"/>
-        <item m="1" x="79"/>
-        <item m="1" x="220"/>
-        <item m="1" x="181"/>
-        <item m="1" x="566"/>
-        <item m="1" x="270"/>
-        <item m="1" x="340"/>
-        <item m="1" x="217"/>
-        <item m="1" x="514"/>
-        <item m="1" x="203"/>
-        <item m="1" x="438"/>
-        <item m="1" x="82"/>
-        <item m="1" x="43"/>
-        <item m="1" x="204"/>
-        <item m="1" x="382"/>
-        <item m="1" x="480"/>
-        <item m="1" x="162"/>
-        <item m="1" x="34"/>
-        <item m="1" x="44"/>
-        <item m="1" x="348"/>
-        <item m="1" x="370"/>
-        <item m="1" x="374"/>
-        <item m="1" x="326"/>
-        <item m="1" x="505"/>
-        <item m="1" x="1"/>
-        <item m="1" x="460"/>
-        <item m="1" x="215"/>
-        <item m="1" x="363"/>
-        <item m="1" x="550"/>
-        <item m="1" x="152"/>
-        <item m="1" x="533"/>
-        <item m="1" x="15"/>
-        <item m="1" x="517"/>
-        <item m="1" x="281"/>
-        <item m="1" x="253"/>
-        <item m="1" x="321"/>
-        <item m="1" x="72"/>
-        <item m="1" x="57"/>
-        <item m="1" x="105"/>
-        <item m="1" x="466"/>
-        <item m="1" x="129"/>
-        <item m="1" x="333"/>
-        <item m="1" x="483"/>
-        <item m="1" x="264"/>
-        <item m="1" x="213"/>
-        <item m="1" x="209"/>
-        <item m="1" x="513"/>
-        <item m="1" x="338"/>
-        <item m="1" x="482"/>
-        <item m="1" x="69"/>
-        <item m="1" x="183"/>
-        <item m="1" x="108"/>
-        <item m="1" x="406"/>
-        <item m="1" x="386"/>
-        <item m="1" x="361"/>
-        <item m="1" x="509"/>
-        <item m="1" x="381"/>
-        <item m="1" x="314"/>
-        <item m="1" x="364"/>
-        <item m="1" x="50"/>
-        <item m="1" x="13"/>
-        <item m="1" x="177"/>
-        <item m="1" x="200"/>
-        <item m="1" x="236"/>
-        <item m="1" x="233"/>
-        <item m="1" x="337"/>
-        <item m="1" x="552"/>
-        <item m="1" x="504"/>
-        <item m="1" x="572"/>
-        <item m="1" x="128"/>
-        <item m="1" x="415"/>
-        <item m="1" x="493"/>
-        <item m="1" x="33"/>
-        <item m="1" x="309"/>
-        <item m="1" x="127"/>
-        <item m="1" x="371"/>
-        <item m="1" x="545"/>
-        <item m="1" x="219"/>
-        <item m="1" x="244"/>
-        <item m="1" x="157"/>
-        <item m="1" x="474"/>
-        <item m="1" x="71"/>
-        <item m="1" x="16"/>
-        <item m="1" x="257"/>
-        <item m="1" x="347"/>
-        <item m="1" x="495"/>
-        <item m="1" x="354"/>
-        <item m="1" x="195"/>
-        <item m="1" x="158"/>
-        <item m="1" x="65"/>
-        <item m="1" x="467"/>
-        <item m="1" x="446"/>
-        <item m="1" x="210"/>
-        <item m="1" x="8"/>
-        <item m="1" x="388"/>
-        <item m="1" x="472"/>
-        <item m="1" x="238"/>
-        <item m="1" x="196"/>
-        <item m="1" x="537"/>
-        <item m="1" x="74"/>
-        <item m="1" x="435"/>
-        <item m="1" x="506"/>
-        <item m="1" x="114"/>
-        <item m="1" x="412"/>
-        <item m="1" x="286"/>
-        <item m="1" x="173"/>
-        <item m="1" x="287"/>
-        <item m="1" x="503"/>
-        <item m="1" x="548"/>
-        <item m="1" x="58"/>
-        <item m="1" x="247"/>
-        <item m="1" x="318"/>
-        <item m="1" x="404"/>
-        <item m="1" x="445"/>
-        <item m="1" x="307"/>
-        <item m="1" x="21"/>
-        <item m="1" x="191"/>
-        <item m="1" x="475"/>
-        <item m="1" x="28"/>
-        <item m="1" x="149"/>
-        <item m="1" x="86"/>
-        <item m="1" x="331"/>
-        <item m="1" x="24"/>
-        <item m="1" x="343"/>
-        <item m="1" x="143"/>
-        <item m="1" x="512"/>
-        <item m="1" x="225"/>
-        <item m="1" x="562"/>
-        <item m="1" x="559"/>
-        <item m="1" x="416"/>
-        <item m="1" x="256"/>
-        <item m="1" x="499"/>
-        <item m="1" x="303"/>
-        <item m="1" x="66"/>
-        <item m="1" x="20"/>
-        <item m="1" x="150"/>
-        <item m="1" x="422"/>
-        <item m="1" x="522"/>
-        <item m="1" x="418"/>
-        <item m="1" x="240"/>
-        <item m="1" x="285"/>
-        <item m="1" x="159"/>
-        <item m="1" x="346"/>
-        <item m="1" x="391"/>
-        <item m="1" x="63"/>
-        <item m="1" x="414"/>
-        <item m="1" x="402"/>
-        <item m="1" x="538"/>
-        <item m="1" x="288"/>
-        <item m="1" x="103"/>
-        <item m="1" x="258"/>
-        <item m="1" x="349"/>
-        <item m="1" x="489"/>
-        <item m="1" x="330"/>
-        <item m="1" x="41"/>
-        <item m="1" x="27"/>
-        <item m="1" x="392"/>
-        <item m="1" x="448"/>
-        <item m="1" x="131"/>
-        <item m="1" x="461"/>
-        <item m="1" x="439"/>
-        <item m="1" x="451"/>
-        <item m="1" x="97"/>
-        <item m="1" x="450"/>
-        <item m="1" x="64"/>
-        <item m="1" x="165"/>
-        <item m="1" x="510"/>
-        <item m="1" x="471"/>
-        <item m="1" x="226"/>
-        <item m="1" x="551"/>
-        <item m="1" x="67"/>
-        <item m="1" x="136"/>
-        <item m="1" x="319"/>
-        <item m="1" x="355"/>
-        <item m="1" x="359"/>
-        <item m="1" x="424"/>
-        <item m="1" x="440"/>
-        <item m="1" x="59"/>
-        <item m="1" x="329"/>
-        <item m="1" x="563"/>
-        <item m="1" x="366"/>
-        <item m="1" x="6"/>
-        <item m="1" x="500"/>
-        <item m="1" x="400"/>
-        <item m="1" x="197"/>
-        <item m="1" x="557"/>
-        <item m="1" x="556"/>
-        <item m="1" x="31"/>
-        <item m="1" x="89"/>
-        <item m="1" x="282"/>
-        <item m="1" x="525"/>
-        <item m="1" x="84"/>
-        <item m="1" x="497"/>
-        <item m="1" x="38"/>
-        <item m="1" x="214"/>
-        <item m="1" x="141"/>
-        <item m="1" x="216"/>
-        <item m="1" x="163"/>
-        <item m="1" x="113"/>
-        <item m="1" x="135"/>
-        <item m="1" x="148"/>
-        <item m="1" x="536"/>
-        <item m="1" x="187"/>
-        <item m="1" x="299"/>
-        <item m="1" x="380"/>
-        <item m="1" x="511"/>
-        <item m="1" x="115"/>
-        <item m="1" x="430"/>
-        <item m="1" x="356"/>
-        <item m="1" x="227"/>
-        <item m="1" x="145"/>
-        <item m="1" x="315"/>
-        <item m="1" x="207"/>
-        <item m="1" x="154"/>
-        <item m="1" x="524"/>
-        <item m="1" x="324"/>
-        <item m="1" x="477"/>
-        <item m="1" x="62"/>
-        <item m="1" x="95"/>
-        <item m="1" x="428"/>
-        <item m="1" x="254"/>
-        <item m="1" x="101"/>
-        <item m="1" x="46"/>
-        <item m="1" x="456"/>
-        <item m="1" x="138"/>
-        <item m="1" x="228"/>
-        <item m="1" x="176"/>
-        <item m="1" x="502"/>
-        <item m="1" x="280"/>
-        <item m="1" x="3"/>
-        <item m="1" x="417"/>
-        <item m="1" x="268"/>
-        <item m="1" x="554"/>
-        <item m="1" x="242"/>
-        <item m="1" x="496"/>
-        <item m="1" x="274"/>
-        <item m="1" x="134"/>
-        <item m="1" x="120"/>
-        <item m="1" x="221"/>
-        <item m="1" x="369"/>
-        <item m="1" x="267"/>
-        <item m="1" x="498"/>
-        <item m="1" x="102"/>
-        <item m="1" x="462"/>
-        <item m="1" x="170"/>
-        <item m="1" x="468"/>
-        <item m="1" x="454"/>
-        <item m="1" x="32"/>
-        <item m="1" x="411"/>
-        <item m="1" x="464"/>
-        <item m="1" x="328"/>
-        <item m="1" x="365"/>
-        <item m="1" x="372"/>
-        <item m="1" x="261"/>
-        <item m="1" x="12"/>
-        <item m="1" x="357"/>
-        <item m="1" x="323"/>
-        <item m="1" x="458"/>
-        <item m="1" x="255"/>
-        <item m="1" x="99"/>
-        <item m="1" x="387"/>
-        <item m="1" x="308"/>
-        <item m="1" x="49"/>
-        <item m="1" x="549"/>
-        <item m="1" x="218"/>
-        <item m="1" x="29"/>
-        <item m="1" x="558"/>
-        <item m="1" x="543"/>
-        <item m="1" x="344"/>
-        <item m="1" x="278"/>
-        <item m="1" x="339"/>
-        <item m="1" x="390"/>
-        <item m="1" x="358"/>
-        <item m="1" x="142"/>
-        <item m="1" x="409"/>
-        <item m="1" x="224"/>
-        <item m="1" x="542"/>
-        <item m="1" x="5"/>
-        <item m="1" x="568"/>
-        <item m="1" x="179"/>
-        <item m="1" x="452"/>
-        <item m="1" x="293"/>
-        <item m="1" x="429"/>
-        <item m="1" x="252"/>
-        <item m="1" x="284"/>
-        <item m="1" x="78"/>
-        <item m="1" x="488"/>
-        <item m="1" x="567"/>
-        <item m="1" x="199"/>
-        <item m="1" x="123"/>
-        <item m="1" x="305"/>
-        <item m="1" x="234"/>
-        <item m="1" x="186"/>
-        <item m="1" x="485"/>
-        <item m="1" x="80"/>
-        <item m="1" x="476"/>
-        <item m="1" x="25"/>
-        <item m="1" x="198"/>
-        <item m="1" x="126"/>
-        <item m="1" x="122"/>
-        <item m="1" x="529"/>
-        <item m="1" x="300"/>
-        <item m="1" x="112"/>
-        <item m="1" x="178"/>
-        <item m="1" x="441"/>
-        <item m="1" x="478"/>
-        <item m="1" x="117"/>
-        <item m="1" x="571"/>
-        <item m="1" x="211"/>
-        <item m="1" x="494"/>
-        <item m="1" x="68"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="29">
+      <items count="1">
         <item x="0"/>
-        <item m="1" x="18"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="2"/>
-        <item m="1" x="19"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="27"/>
-        <item m="1" x="7"/>
-        <item m="1" x="12"/>
-        <item m="1" x="15"/>
-        <item m="1" x="26"/>
-        <item m="1" x="1"/>
-        <item m="1" x="28"/>
-        <item m="1" x="20"/>
-        <item m="1" x="23"/>
-        <item m="1" x="25"/>
-        <item m="1" x="21"/>
-        <item m="1" x="8"/>
-        <item m="1" x="22"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item m="1" x="16"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="10"/>
-        <item m="1" x="24"/>
-        <item m="1" x="14"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="23">
+      <items count="1">
         <item x="0"/>
-        <item m="1" x="22"/>
-        <item m="1" x="16"/>
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="18"/>
-        <item m="1" x="15"/>
-        <item m="1" x="7"/>
-        <item m="1" x="3"/>
-        <item m="1" x="21"/>
-        <item m="1" x="4"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="12"/>
-        <item m="1" x="8"/>
-        <item m="1" x="17"/>
-        <item m="1" x="13"/>
-        <item m="1" x="2"/>
-        <item m="1" x="11"/>
-        <item m="1" x="14"/>
-        <item m="1" x="1"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0" defaultSubtotal="0">
-      <items count="3">
+      <items count="1">
         <item x="0"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0" defaultSubtotal="0">
-      <items count="3">
+      <items count="1">
         <item x="0"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -7121,87 +4605,36 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="29">
+      <items count="1">
         <item x="0"/>
-        <item m="1" x="18"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="2"/>
-        <item m="1" x="19"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="27"/>
-        <item m="1" x="7"/>
-        <item m="1" x="12"/>
-        <item m="1" x="15"/>
-        <item m="1" x="26"/>
-        <item m="1" x="1"/>
-        <item m="1" x="28"/>
-        <item m="1" x="20"/>
-        <item m="1" x="23"/>
-        <item m="1" x="25"/>
-        <item m="1" x="21"/>
-        <item m="1" x="8"/>
-        <item m="1" x="22"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item m="1" x="16"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="10"/>
-        <item m="1" x="24"/>
-        <item m="1" x="14"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="23">
+      <items count="1">
         <item x="0"/>
-        <item m="1" x="22"/>
-        <item m="1" x="16"/>
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="18"/>
-        <item m="1" x="15"/>
-        <item m="1" x="7"/>
-        <item m="1" x="3"/>
-        <item m="1" x="21"/>
-        <item m="1" x="4"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="12"/>
-        <item m="1" x="8"/>
-        <item m="1" x="17"/>
-        <item m="1" x="13"/>
-        <item m="1" x="2"/>
-        <item m="1" x="11"/>
-        <item m="1" x="14"/>
-        <item m="1" x="1"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0" defaultSubtotal="0">
-      <items count="3">
+      <items count="1">
         <item x="0"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0" defaultSubtotal="0">
-      <items count="3">
+      <items count="1">
         <item x="0"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -7235,6 +4668,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
@@ -7253,10 +4689,8 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1" showMissing="0" crossFilter="showItemsWithNoData">
-      <items count="3">
+      <items count="1">
         <i x="0" s="1"/>
-        <i x="2" s="1" nd="1"/>
-        <i x="1" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -7276,10 +4710,8 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1" showMissing="0" crossFilter="showItemsWithNoData">
-      <items count="3">
+      <items count="1">
         <i x="0" s="1"/>
-        <i x="1" s="1" nd="1"/>
-        <i x="2" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -7572,7 +5004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -7710,10 +5142,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7793,15 +5225,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>3</v>
+      <c r="A8" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7815,7 +5242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Actor-Security-Role-Reporter/Resources/ActorSecurityRoleReport.xlsx
+++ b/Actor-Security-Role-Reporter/Resources/ActorSecurityRoleReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23070" windowHeight="9780" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23070" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -4165,7 +4165,69 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="D1:E3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A1:B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
@@ -4226,8 +4288,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="J1:L3" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -4286,8 +4348,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="F2:G4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -4358,70 +4420,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="D1:E3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="1">
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="1">
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="1">
-        <item x="0"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:A8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -4485,7 +4485,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E5:E8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -4545,7 +4545,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:A9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -4613,7 +4613,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
@@ -5004,7 +5004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -5242,7 +5242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
